--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,27 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Test Data</t>
   </si>
 </sst>
 </file>
@@ -122,8 +143,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,25 +429,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX1"/>
+  <dimension ref="A1:CY1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,30 +456,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -544,23 +575,62 @@
       <c r="CV1" s="2"/>
       <c r="CW1" s="2"/>
       <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K367</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Severity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority </t>
   </si>
   <si>
     <t>Type</t>
@@ -72,12 +69,246 @@
   <si>
     <t>Test Data</t>
   </si>
+  <si>
+    <t xml:space="preserve">Login with valid user 
+ credientials </t>
+  </si>
+  <si>
+    <r>
+      <t>UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Previous" button.
+</t>
+  </si>
+  <si>
+    <t>Previous button is not-clickable.</t>
+  </si>
+  <si>
+    <t>Previous Button is
+ click-able</t>
+  </si>
+  <si>
+    <t>Mariam Nessiem</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>The "Previous Button" is not dimmed in case of Displaying
+ the first 5 nearby Restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Next" button until you reach the 
+last restaurants page.
+6- Click"Next" button on the last 5 or less restaurants page.
+</t>
+  </si>
+  <si>
+    <t>The "Next Button" is not dimmed in case of Displaying
+ the last 5 or less nearby Restaurants.</t>
+  </si>
+  <si>
+    <t>Next button is not-clickable.</t>
+  </si>
+  <si>
+    <t>Next Button is
+ click-able</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Foodies_Bug001</t>
+  </si>
+  <si>
+    <t>Foodies_Bug002</t>
+  </si>
+  <si>
+    <t>Foodies_Bug003</t>
+  </si>
+  <si>
+    <t>Foodies_Bug004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+</t>
+  </si>
+  <si>
+    <t>Verify that the pop-up message text is the required text to appear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>System Failed to display a "Pop-up message" 
+in case of no nearby Restaurants to the user's location.</t>
+  </si>
+  <si>
+    <t>1- Login with valid user 
+credientials.
+2- No restaurants for user's location in database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popup Message appears to the user
+</t>
+  </si>
+  <si>
+    <t>No Pop-up Message appeared</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Pop-up message text is "There is no near
+ Restaurants from you :( "</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +324,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +380,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -137,16 +470,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,26 +944,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY1"/>
+  <dimension ref="A1:CY999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" customWidth="1"/>
+    <col min="8" max="9" width="23" style="18" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -470,20 +987,20 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -577,6 +1094,4167 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
+    <row r="2" spans="1:103" s="5" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="5" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="5" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" s="5" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="I6" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="H12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="H13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:103" ht="15" x14ac:dyDescent="0.3">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+    </row>
+    <row r="110" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+    </row>
+    <row r="113" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+    </row>
+    <row r="114" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+    </row>
+    <row r="115" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+    </row>
+    <row r="116" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+    </row>
+    <row r="117" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+    </row>
+    <row r="118" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+    </row>
+    <row r="119" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+    </row>
+    <row r="120" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+    </row>
+    <row r="121" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+    </row>
+    <row r="122" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+    </row>
+    <row r="123" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+    </row>
+    <row r="124" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+    </row>
+    <row r="125" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+    </row>
+    <row r="126" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+    </row>
+    <row r="127" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+    </row>
+    <row r="128" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+    </row>
+    <row r="129" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+    </row>
+    <row r="130" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+    </row>
+    <row r="131" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+    </row>
+    <row r="132" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+    </row>
+    <row r="133" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+    </row>
+    <row r="134" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+    </row>
+    <row r="135" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+    </row>
+    <row r="136" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+    </row>
+    <row r="137" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+    </row>
+    <row r="138" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+    </row>
+    <row r="139" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+    </row>
+    <row r="140" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+    </row>
+    <row r="141" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+    </row>
+    <row r="142" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+    </row>
+    <row r="143" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+    </row>
+    <row r="144" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+    </row>
+    <row r="145" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+    </row>
+    <row r="146" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+    </row>
+    <row r="147" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+    </row>
+    <row r="148" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+    </row>
+    <row r="149" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+    </row>
+    <row r="150" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+    </row>
+    <row r="151" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+    </row>
+    <row r="152" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+    </row>
+    <row r="153" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+    </row>
+    <row r="154" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+    </row>
+    <row r="155" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+    </row>
+    <row r="156" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+    </row>
+    <row r="157" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+    </row>
+    <row r="158" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+    </row>
+    <row r="159" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+    </row>
+    <row r="160" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+    </row>
+    <row r="161" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+    </row>
+    <row r="162" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+    </row>
+    <row r="163" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+    </row>
+    <row r="164" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+    </row>
+    <row r="165" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+    </row>
+    <row r="166" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+    </row>
+    <row r="167" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+    </row>
+    <row r="168" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+    </row>
+    <row r="169" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+    </row>
+    <row r="170" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+    </row>
+    <row r="171" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+    </row>
+    <row r="172" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+    </row>
+    <row r="173" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+    </row>
+    <row r="174" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+    </row>
+    <row r="175" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+    </row>
+    <row r="176" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+    </row>
+    <row r="177" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+    </row>
+    <row r="178" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+    </row>
+    <row r="179" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+    </row>
+    <row r="180" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+    </row>
+    <row r="181" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+    </row>
+    <row r="182" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+    </row>
+    <row r="183" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+    </row>
+    <row r="184" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+    </row>
+    <row r="185" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+    </row>
+    <row r="186" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+    </row>
+    <row r="187" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+    </row>
+    <row r="188" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
+    </row>
+    <row r="189" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
+    </row>
+    <row r="190" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H190" s="17"/>
+      <c r="I190" s="17"/>
+    </row>
+    <row r="191" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+    </row>
+    <row r="192" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H192" s="17"/>
+      <c r="I192" s="17"/>
+    </row>
+    <row r="193" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H193" s="17"/>
+      <c r="I193" s="17"/>
+    </row>
+    <row r="194" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+    </row>
+    <row r="195" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
+    </row>
+    <row r="196" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+    </row>
+    <row r="197" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+    </row>
+    <row r="198" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
+    </row>
+    <row r="199" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+    </row>
+    <row r="200" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+    </row>
+    <row r="201" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+    </row>
+    <row r="202" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+    </row>
+    <row r="203" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+    </row>
+    <row r="204" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+    </row>
+    <row r="205" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+    </row>
+    <row r="206" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H206" s="17"/>
+      <c r="I206" s="17"/>
+    </row>
+    <row r="207" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H207" s="17"/>
+      <c r="I207" s="17"/>
+    </row>
+    <row r="208" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H208" s="17"/>
+      <c r="I208" s="17"/>
+    </row>
+    <row r="209" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H209" s="17"/>
+      <c r="I209" s="17"/>
+    </row>
+    <row r="210" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H210" s="17"/>
+      <c r="I210" s="17"/>
+    </row>
+    <row r="211" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H211" s="17"/>
+      <c r="I211" s="17"/>
+    </row>
+    <row r="212" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H212" s="17"/>
+      <c r="I212" s="17"/>
+    </row>
+    <row r="213" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H213" s="17"/>
+      <c r="I213" s="17"/>
+    </row>
+    <row r="214" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H214" s="17"/>
+      <c r="I214" s="17"/>
+    </row>
+    <row r="215" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H215" s="17"/>
+      <c r="I215" s="17"/>
+    </row>
+    <row r="216" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H216" s="17"/>
+      <c r="I216" s="17"/>
+    </row>
+    <row r="217" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+    </row>
+    <row r="218" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
+    </row>
+    <row r="219" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+    </row>
+    <row r="220" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
+    </row>
+    <row r="221" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+    </row>
+    <row r="222" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H222" s="17"/>
+      <c r="I222" s="17"/>
+    </row>
+    <row r="223" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
+    </row>
+    <row r="224" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H224" s="17"/>
+      <c r="I224" s="17"/>
+    </row>
+    <row r="225" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H225" s="17"/>
+      <c r="I225" s="17"/>
+    </row>
+    <row r="226" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+    </row>
+    <row r="227" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H227" s="17"/>
+      <c r="I227" s="17"/>
+    </row>
+    <row r="228" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H228" s="17"/>
+      <c r="I228" s="17"/>
+    </row>
+    <row r="229" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H229" s="17"/>
+      <c r="I229" s="17"/>
+    </row>
+    <row r="230" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H230" s="17"/>
+      <c r="I230" s="17"/>
+    </row>
+    <row r="231" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H231" s="17"/>
+      <c r="I231" s="17"/>
+    </row>
+    <row r="232" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H232" s="17"/>
+      <c r="I232" s="17"/>
+    </row>
+    <row r="233" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H233" s="17"/>
+      <c r="I233" s="17"/>
+    </row>
+    <row r="234" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H234" s="17"/>
+      <c r="I234" s="17"/>
+    </row>
+    <row r="235" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H235" s="17"/>
+      <c r="I235" s="17"/>
+    </row>
+    <row r="236" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H236" s="17"/>
+      <c r="I236" s="17"/>
+    </row>
+    <row r="237" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H237" s="17"/>
+      <c r="I237" s="17"/>
+    </row>
+    <row r="238" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H238" s="17"/>
+      <c r="I238" s="17"/>
+    </row>
+    <row r="239" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H239" s="17"/>
+      <c r="I239" s="17"/>
+    </row>
+    <row r="240" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H240" s="17"/>
+      <c r="I240" s="17"/>
+    </row>
+    <row r="241" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+    </row>
+    <row r="242" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
+    </row>
+    <row r="243" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+    </row>
+    <row r="244" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H244" s="17"/>
+      <c r="I244" s="17"/>
+    </row>
+    <row r="245" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H245" s="17"/>
+      <c r="I245" s="17"/>
+    </row>
+    <row r="246" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H246" s="17"/>
+      <c r="I246" s="17"/>
+    </row>
+    <row r="247" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+    </row>
+    <row r="248" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H248" s="17"/>
+      <c r="I248" s="17"/>
+    </row>
+    <row r="249" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+    </row>
+    <row r="250" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+    </row>
+    <row r="251" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+    </row>
+    <row r="252" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H252" s="17"/>
+      <c r="I252" s="17"/>
+    </row>
+    <row r="253" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H253" s="17"/>
+      <c r="I253" s="17"/>
+    </row>
+    <row r="254" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H254" s="17"/>
+      <c r="I254" s="17"/>
+    </row>
+    <row r="255" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H255" s="17"/>
+      <c r="I255" s="17"/>
+    </row>
+    <row r="256" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H256" s="17"/>
+      <c r="I256" s="17"/>
+    </row>
+    <row r="257" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H257" s="17"/>
+      <c r="I257" s="17"/>
+    </row>
+    <row r="258" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H258" s="17"/>
+      <c r="I258" s="17"/>
+    </row>
+    <row r="259" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+    </row>
+    <row r="260" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H260" s="17"/>
+      <c r="I260" s="17"/>
+    </row>
+    <row r="261" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H261" s="17"/>
+      <c r="I261" s="17"/>
+    </row>
+    <row r="262" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H262" s="17"/>
+      <c r="I262" s="17"/>
+    </row>
+    <row r="263" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H263" s="17"/>
+      <c r="I263" s="17"/>
+    </row>
+    <row r="264" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H264" s="17"/>
+      <c r="I264" s="17"/>
+    </row>
+    <row r="265" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H265" s="17"/>
+      <c r="I265" s="17"/>
+    </row>
+    <row r="266" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H266" s="17"/>
+      <c r="I266" s="17"/>
+    </row>
+    <row r="267" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H267" s="17"/>
+      <c r="I267" s="17"/>
+    </row>
+    <row r="268" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H268" s="17"/>
+      <c r="I268" s="17"/>
+    </row>
+    <row r="269" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H269" s="17"/>
+      <c r="I269" s="17"/>
+    </row>
+    <row r="270" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H270" s="17"/>
+      <c r="I270" s="17"/>
+    </row>
+    <row r="271" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H271" s="17"/>
+      <c r="I271" s="17"/>
+    </row>
+    <row r="272" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H272" s="17"/>
+      <c r="I272" s="17"/>
+    </row>
+    <row r="273" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H273" s="17"/>
+      <c r="I273" s="17"/>
+    </row>
+    <row r="274" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H274" s="17"/>
+      <c r="I274" s="17"/>
+    </row>
+    <row r="275" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H275" s="17"/>
+      <c r="I275" s="17"/>
+    </row>
+    <row r="276" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H276" s="17"/>
+      <c r="I276" s="17"/>
+    </row>
+    <row r="277" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H277" s="17"/>
+      <c r="I277" s="17"/>
+    </row>
+    <row r="278" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H278" s="17"/>
+      <c r="I278" s="17"/>
+    </row>
+    <row r="279" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H279" s="17"/>
+      <c r="I279" s="17"/>
+    </row>
+    <row r="280" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H280" s="17"/>
+      <c r="I280" s="17"/>
+    </row>
+    <row r="281" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H281" s="17"/>
+      <c r="I281" s="17"/>
+    </row>
+    <row r="282" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H282" s="17"/>
+      <c r="I282" s="17"/>
+    </row>
+    <row r="283" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H283" s="17"/>
+      <c r="I283" s="17"/>
+    </row>
+    <row r="284" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H284" s="17"/>
+      <c r="I284" s="17"/>
+    </row>
+    <row r="285" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H285" s="17"/>
+      <c r="I285" s="17"/>
+    </row>
+    <row r="286" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H286" s="17"/>
+      <c r="I286" s="17"/>
+    </row>
+    <row r="287" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H287" s="17"/>
+      <c r="I287" s="17"/>
+    </row>
+    <row r="288" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H288" s="17"/>
+      <c r="I288" s="17"/>
+    </row>
+    <row r="289" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H289" s="17"/>
+      <c r="I289" s="17"/>
+    </row>
+    <row r="290" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H290" s="17"/>
+      <c r="I290" s="17"/>
+    </row>
+    <row r="291" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H291" s="17"/>
+      <c r="I291" s="17"/>
+    </row>
+    <row r="292" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H292" s="17"/>
+      <c r="I292" s="17"/>
+    </row>
+    <row r="293" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H293" s="17"/>
+      <c r="I293" s="17"/>
+    </row>
+    <row r="294" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H294" s="17"/>
+      <c r="I294" s="17"/>
+    </row>
+    <row r="295" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H295" s="17"/>
+      <c r="I295" s="17"/>
+    </row>
+    <row r="296" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H296" s="17"/>
+      <c r="I296" s="17"/>
+    </row>
+    <row r="297" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H297" s="17"/>
+      <c r="I297" s="17"/>
+    </row>
+    <row r="298" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H298" s="17"/>
+      <c r="I298" s="17"/>
+    </row>
+    <row r="299" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H299" s="17"/>
+      <c r="I299" s="17"/>
+    </row>
+    <row r="300" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H300" s="17"/>
+      <c r="I300" s="17"/>
+    </row>
+    <row r="301" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H301" s="17"/>
+      <c r="I301" s="17"/>
+    </row>
+    <row r="302" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H302" s="17"/>
+      <c r="I302" s="17"/>
+    </row>
+    <row r="303" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H303" s="17"/>
+      <c r="I303" s="17"/>
+    </row>
+    <row r="304" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H304" s="17"/>
+      <c r="I304" s="17"/>
+    </row>
+    <row r="305" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H305" s="17"/>
+      <c r="I305" s="17"/>
+    </row>
+    <row r="306" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H306" s="17"/>
+      <c r="I306" s="17"/>
+    </row>
+    <row r="307" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H307" s="17"/>
+      <c r="I307" s="17"/>
+    </row>
+    <row r="308" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H308" s="17"/>
+      <c r="I308" s="17"/>
+    </row>
+    <row r="309" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H309" s="17"/>
+      <c r="I309" s="17"/>
+    </row>
+    <row r="310" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H310" s="17"/>
+      <c r="I310" s="17"/>
+    </row>
+    <row r="311" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H311" s="17"/>
+      <c r="I311" s="17"/>
+    </row>
+    <row r="312" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H312" s="17"/>
+      <c r="I312" s="17"/>
+    </row>
+    <row r="313" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H313" s="17"/>
+      <c r="I313" s="17"/>
+    </row>
+    <row r="314" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H314" s="17"/>
+      <c r="I314" s="17"/>
+    </row>
+    <row r="315" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H315" s="17"/>
+      <c r="I315" s="17"/>
+    </row>
+    <row r="316" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H316" s="17"/>
+      <c r="I316" s="17"/>
+    </row>
+    <row r="317" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H317" s="17"/>
+      <c r="I317" s="17"/>
+    </row>
+    <row r="318" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H318" s="17"/>
+      <c r="I318" s="17"/>
+    </row>
+    <row r="319" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H319" s="17"/>
+      <c r="I319" s="17"/>
+    </row>
+    <row r="320" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H320" s="17"/>
+      <c r="I320" s="17"/>
+    </row>
+    <row r="321" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H321" s="17"/>
+      <c r="I321" s="17"/>
+    </row>
+    <row r="322" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H322" s="17"/>
+      <c r="I322" s="17"/>
+    </row>
+    <row r="323" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+    </row>
+    <row r="324" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H324" s="17"/>
+      <c r="I324" s="17"/>
+    </row>
+    <row r="325" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H325" s="17"/>
+      <c r="I325" s="17"/>
+    </row>
+    <row r="326" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H326" s="17"/>
+      <c r="I326" s="17"/>
+    </row>
+    <row r="327" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H327" s="17"/>
+      <c r="I327" s="17"/>
+    </row>
+    <row r="328" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H328" s="17"/>
+      <c r="I328" s="17"/>
+    </row>
+    <row r="329" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H329" s="17"/>
+      <c r="I329" s="17"/>
+    </row>
+    <row r="330" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H330" s="17"/>
+      <c r="I330" s="17"/>
+    </row>
+    <row r="331" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H331" s="17"/>
+      <c r="I331" s="17"/>
+    </row>
+    <row r="332" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H332" s="17"/>
+      <c r="I332" s="17"/>
+    </row>
+    <row r="333" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H333" s="17"/>
+      <c r="I333" s="17"/>
+    </row>
+    <row r="334" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H334" s="17"/>
+      <c r="I334" s="17"/>
+    </row>
+    <row r="335" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H335" s="17"/>
+      <c r="I335" s="17"/>
+    </row>
+    <row r="336" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H336" s="17"/>
+      <c r="I336" s="17"/>
+    </row>
+    <row r="337" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H337" s="17"/>
+      <c r="I337" s="17"/>
+    </row>
+    <row r="338" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H338" s="17"/>
+      <c r="I338" s="17"/>
+    </row>
+    <row r="339" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H339" s="17"/>
+      <c r="I339" s="17"/>
+    </row>
+    <row r="340" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H340" s="17"/>
+      <c r="I340" s="17"/>
+    </row>
+    <row r="341" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H341" s="17"/>
+      <c r="I341" s="17"/>
+    </row>
+    <row r="342" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H342" s="17"/>
+      <c r="I342" s="17"/>
+    </row>
+    <row r="343" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H343" s="17"/>
+      <c r="I343" s="17"/>
+    </row>
+    <row r="344" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H344" s="17"/>
+      <c r="I344" s="17"/>
+    </row>
+    <row r="345" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H345" s="17"/>
+      <c r="I345" s="17"/>
+    </row>
+    <row r="346" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H346" s="17"/>
+      <c r="I346" s="17"/>
+    </row>
+    <row r="347" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H347" s="17"/>
+      <c r="I347" s="17"/>
+    </row>
+    <row r="348" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H348" s="17"/>
+      <c r="I348" s="17"/>
+    </row>
+    <row r="349" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H349" s="17"/>
+      <c r="I349" s="17"/>
+    </row>
+    <row r="350" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H350" s="17"/>
+      <c r="I350" s="17"/>
+    </row>
+    <row r="351" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H351" s="17"/>
+      <c r="I351" s="17"/>
+    </row>
+    <row r="352" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H352" s="17"/>
+      <c r="I352" s="17"/>
+    </row>
+    <row r="353" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H353" s="17"/>
+      <c r="I353" s="17"/>
+    </row>
+    <row r="354" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H354" s="17"/>
+      <c r="I354" s="17"/>
+    </row>
+    <row r="355" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H355" s="17"/>
+      <c r="I355" s="17"/>
+    </row>
+    <row r="356" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H356" s="17"/>
+      <c r="I356" s="17"/>
+    </row>
+    <row r="357" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H357" s="17"/>
+      <c r="I357" s="17"/>
+    </row>
+    <row r="358" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H358" s="17"/>
+      <c r="I358" s="17"/>
+    </row>
+    <row r="359" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H359" s="17"/>
+      <c r="I359" s="17"/>
+    </row>
+    <row r="360" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H360" s="17"/>
+      <c r="I360" s="17"/>
+    </row>
+    <row r="361" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H361" s="17"/>
+      <c r="I361" s="17"/>
+    </row>
+    <row r="362" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H362" s="17"/>
+      <c r="I362" s="17"/>
+    </row>
+    <row r="363" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H363" s="17"/>
+      <c r="I363" s="17"/>
+    </row>
+    <row r="364" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H364" s="17"/>
+      <c r="I364" s="17"/>
+    </row>
+    <row r="365" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H365" s="17"/>
+      <c r="I365" s="17"/>
+    </row>
+    <row r="366" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H366" s="17"/>
+      <c r="I366" s="17"/>
+    </row>
+    <row r="367" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H367" s="17"/>
+      <c r="I367" s="17"/>
+    </row>
+    <row r="368" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H368" s="17"/>
+      <c r="I368" s="17"/>
+    </row>
+    <row r="369" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H369" s="17"/>
+      <c r="I369" s="17"/>
+    </row>
+    <row r="370" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H370" s="17"/>
+      <c r="I370" s="17"/>
+    </row>
+    <row r="371" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H371" s="17"/>
+      <c r="I371" s="17"/>
+    </row>
+    <row r="372" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H372" s="17"/>
+      <c r="I372" s="17"/>
+    </row>
+    <row r="373" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H373" s="17"/>
+      <c r="I373" s="17"/>
+    </row>
+    <row r="374" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H374" s="17"/>
+      <c r="I374" s="17"/>
+    </row>
+    <row r="375" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H375" s="17"/>
+      <c r="I375" s="17"/>
+    </row>
+    <row r="376" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H376" s="17"/>
+      <c r="I376" s="17"/>
+    </row>
+    <row r="377" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H377" s="17"/>
+      <c r="I377" s="17"/>
+    </row>
+    <row r="378" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H378" s="17"/>
+      <c r="I378" s="17"/>
+    </row>
+    <row r="379" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H379" s="17"/>
+      <c r="I379" s="17"/>
+    </row>
+    <row r="380" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H380" s="17"/>
+      <c r="I380" s="17"/>
+    </row>
+    <row r="381" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H381" s="17"/>
+      <c r="I381" s="17"/>
+    </row>
+    <row r="382" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H382" s="17"/>
+      <c r="I382" s="17"/>
+    </row>
+    <row r="383" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H383" s="17"/>
+      <c r="I383" s="17"/>
+    </row>
+    <row r="384" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H384" s="17"/>
+      <c r="I384" s="17"/>
+    </row>
+    <row r="385" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H385" s="17"/>
+      <c r="I385" s="17"/>
+    </row>
+    <row r="386" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H386" s="17"/>
+      <c r="I386" s="17"/>
+    </row>
+    <row r="387" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H387" s="17"/>
+      <c r="I387" s="17"/>
+    </row>
+    <row r="388" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H388" s="17"/>
+      <c r="I388" s="17"/>
+    </row>
+    <row r="389" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H389" s="17"/>
+      <c r="I389" s="17"/>
+    </row>
+    <row r="390" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H390" s="17"/>
+      <c r="I390" s="17"/>
+    </row>
+    <row r="391" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H391" s="17"/>
+      <c r="I391" s="17"/>
+    </row>
+    <row r="392" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H392" s="17"/>
+      <c r="I392" s="17"/>
+    </row>
+    <row r="393" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H393" s="17"/>
+      <c r="I393" s="17"/>
+    </row>
+    <row r="394" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H394" s="17"/>
+      <c r="I394" s="17"/>
+    </row>
+    <row r="395" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H395" s="17"/>
+      <c r="I395" s="17"/>
+    </row>
+    <row r="396" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H396" s="17"/>
+      <c r="I396" s="17"/>
+    </row>
+    <row r="397" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H397" s="17"/>
+      <c r="I397" s="17"/>
+    </row>
+    <row r="398" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H398" s="17"/>
+      <c r="I398" s="17"/>
+    </row>
+    <row r="399" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H399" s="17"/>
+      <c r="I399" s="17"/>
+    </row>
+    <row r="400" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H400" s="17"/>
+      <c r="I400" s="17"/>
+    </row>
+    <row r="401" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H401" s="17"/>
+      <c r="I401" s="17"/>
+    </row>
+    <row r="402" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H402" s="17"/>
+      <c r="I402" s="17"/>
+    </row>
+    <row r="403" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H403" s="17"/>
+      <c r="I403" s="17"/>
+    </row>
+    <row r="404" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H404" s="17"/>
+      <c r="I404" s="17"/>
+    </row>
+    <row r="405" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H405" s="17"/>
+      <c r="I405" s="17"/>
+    </row>
+    <row r="406" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H406" s="17"/>
+      <c r="I406" s="17"/>
+    </row>
+    <row r="407" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H407" s="17"/>
+      <c r="I407" s="17"/>
+    </row>
+    <row r="408" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H408" s="17"/>
+      <c r="I408" s="17"/>
+    </row>
+    <row r="409" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H409" s="17"/>
+      <c r="I409" s="17"/>
+    </row>
+    <row r="410" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H410" s="17"/>
+      <c r="I410" s="17"/>
+    </row>
+    <row r="411" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H411" s="17"/>
+      <c r="I411" s="17"/>
+    </row>
+    <row r="412" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H412" s="17"/>
+      <c r="I412" s="17"/>
+    </row>
+    <row r="413" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H413" s="17"/>
+      <c r="I413" s="17"/>
+    </row>
+    <row r="414" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H414" s="17"/>
+      <c r="I414" s="17"/>
+    </row>
+    <row r="415" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H415" s="17"/>
+      <c r="I415" s="17"/>
+    </row>
+    <row r="416" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H416" s="17"/>
+      <c r="I416" s="17"/>
+    </row>
+    <row r="417" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H417" s="17"/>
+      <c r="I417" s="17"/>
+    </row>
+    <row r="418" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H418" s="17"/>
+      <c r="I418" s="17"/>
+    </row>
+    <row r="419" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H419" s="17"/>
+      <c r="I419" s="17"/>
+    </row>
+    <row r="420" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H420" s="17"/>
+      <c r="I420" s="17"/>
+    </row>
+    <row r="421" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H421" s="17"/>
+      <c r="I421" s="17"/>
+    </row>
+    <row r="422" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H422" s="17"/>
+      <c r="I422" s="17"/>
+    </row>
+    <row r="423" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H423" s="17"/>
+      <c r="I423" s="17"/>
+    </row>
+    <row r="424" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H424" s="17"/>
+      <c r="I424" s="17"/>
+    </row>
+    <row r="425" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H425" s="17"/>
+      <c r="I425" s="17"/>
+    </row>
+    <row r="426" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H426" s="17"/>
+      <c r="I426" s="17"/>
+    </row>
+    <row r="427" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H427" s="17"/>
+      <c r="I427" s="17"/>
+    </row>
+    <row r="428" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H428" s="17"/>
+      <c r="I428" s="17"/>
+    </row>
+    <row r="429" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H429" s="17"/>
+      <c r="I429" s="17"/>
+    </row>
+    <row r="430" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H430" s="17"/>
+      <c r="I430" s="17"/>
+    </row>
+    <row r="431" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H431" s="17"/>
+      <c r="I431" s="17"/>
+    </row>
+    <row r="432" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H432" s="17"/>
+      <c r="I432" s="17"/>
+    </row>
+    <row r="433" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H433" s="17"/>
+      <c r="I433" s="17"/>
+    </row>
+    <row r="434" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H434" s="17"/>
+      <c r="I434" s="17"/>
+    </row>
+    <row r="435" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H435" s="17"/>
+      <c r="I435" s="17"/>
+    </row>
+    <row r="436" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H436" s="17"/>
+      <c r="I436" s="17"/>
+    </row>
+    <row r="437" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H437" s="17"/>
+      <c r="I437" s="17"/>
+    </row>
+    <row r="438" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H438" s="17"/>
+      <c r="I438" s="17"/>
+    </row>
+    <row r="439" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H439" s="17"/>
+      <c r="I439" s="17"/>
+    </row>
+    <row r="440" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H440" s="17"/>
+      <c r="I440" s="17"/>
+    </row>
+    <row r="441" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H441" s="17"/>
+      <c r="I441" s="17"/>
+    </row>
+    <row r="442" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H442" s="17"/>
+      <c r="I442" s="17"/>
+    </row>
+    <row r="443" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H443" s="17"/>
+      <c r="I443" s="17"/>
+    </row>
+    <row r="444" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H444" s="17"/>
+      <c r="I444" s="17"/>
+    </row>
+    <row r="445" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H445" s="17"/>
+      <c r="I445" s="17"/>
+    </row>
+    <row r="446" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H446" s="17"/>
+      <c r="I446" s="17"/>
+    </row>
+    <row r="447" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H447" s="17"/>
+      <c r="I447" s="17"/>
+    </row>
+    <row r="448" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H448" s="17"/>
+      <c r="I448" s="17"/>
+    </row>
+    <row r="449" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H449" s="17"/>
+      <c r="I449" s="17"/>
+    </row>
+    <row r="450" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H450" s="17"/>
+      <c r="I450" s="17"/>
+    </row>
+    <row r="451" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H451" s="17"/>
+      <c r="I451" s="17"/>
+    </row>
+    <row r="452" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H452" s="17"/>
+      <c r="I452" s="17"/>
+    </row>
+    <row r="453" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H453" s="17"/>
+      <c r="I453" s="17"/>
+    </row>
+    <row r="454" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H454" s="17"/>
+      <c r="I454" s="17"/>
+    </row>
+    <row r="455" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H455" s="17"/>
+      <c r="I455" s="17"/>
+    </row>
+    <row r="456" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H456" s="17"/>
+      <c r="I456" s="17"/>
+    </row>
+    <row r="457" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H457" s="17"/>
+      <c r="I457" s="17"/>
+    </row>
+    <row r="458" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H458" s="17"/>
+      <c r="I458" s="17"/>
+    </row>
+    <row r="459" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H459" s="17"/>
+      <c r="I459" s="17"/>
+    </row>
+    <row r="460" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H460" s="17"/>
+      <c r="I460" s="17"/>
+    </row>
+    <row r="461" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H461" s="17"/>
+      <c r="I461" s="17"/>
+    </row>
+    <row r="462" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H462" s="17"/>
+      <c r="I462" s="17"/>
+    </row>
+    <row r="463" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H463" s="17"/>
+      <c r="I463" s="17"/>
+    </row>
+    <row r="464" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H464" s="17"/>
+      <c r="I464" s="17"/>
+    </row>
+    <row r="465" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H465" s="17"/>
+      <c r="I465" s="17"/>
+    </row>
+    <row r="466" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H466" s="17"/>
+      <c r="I466" s="17"/>
+    </row>
+    <row r="467" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H467" s="17"/>
+      <c r="I467" s="17"/>
+    </row>
+    <row r="468" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H468" s="17"/>
+      <c r="I468" s="17"/>
+    </row>
+    <row r="469" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H469" s="17"/>
+      <c r="I469" s="17"/>
+    </row>
+    <row r="470" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H470" s="17"/>
+      <c r="I470" s="17"/>
+    </row>
+    <row r="471" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H471" s="17"/>
+      <c r="I471" s="17"/>
+    </row>
+    <row r="472" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H472" s="17"/>
+      <c r="I472" s="17"/>
+    </row>
+    <row r="473" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H473" s="17"/>
+      <c r="I473" s="17"/>
+    </row>
+    <row r="474" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H474" s="17"/>
+      <c r="I474" s="17"/>
+    </row>
+    <row r="475" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H475" s="17"/>
+      <c r="I475" s="17"/>
+    </row>
+    <row r="476" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H476" s="17"/>
+      <c r="I476" s="17"/>
+    </row>
+    <row r="477" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H477" s="17"/>
+      <c r="I477" s="17"/>
+    </row>
+    <row r="478" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H478" s="17"/>
+      <c r="I478" s="17"/>
+    </row>
+    <row r="479" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H479" s="17"/>
+      <c r="I479" s="17"/>
+    </row>
+    <row r="480" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H480" s="17"/>
+      <c r="I480" s="17"/>
+    </row>
+    <row r="481" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H481" s="17"/>
+      <c r="I481" s="17"/>
+    </row>
+    <row r="482" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H482" s="17"/>
+      <c r="I482" s="17"/>
+    </row>
+    <row r="483" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H483" s="17"/>
+      <c r="I483" s="17"/>
+    </row>
+    <row r="484" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H484" s="17"/>
+      <c r="I484" s="17"/>
+    </row>
+    <row r="485" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H485" s="17"/>
+      <c r="I485" s="17"/>
+    </row>
+    <row r="486" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H486" s="17"/>
+      <c r="I486" s="17"/>
+    </row>
+    <row r="487" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H487" s="17"/>
+      <c r="I487" s="17"/>
+    </row>
+    <row r="488" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H488" s="17"/>
+      <c r="I488" s="17"/>
+    </row>
+    <row r="489" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H489" s="17"/>
+      <c r="I489" s="17"/>
+    </row>
+    <row r="490" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H490" s="17"/>
+      <c r="I490" s="17"/>
+    </row>
+    <row r="491" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H491" s="17"/>
+      <c r="I491" s="17"/>
+    </row>
+    <row r="492" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H492" s="17"/>
+      <c r="I492" s="17"/>
+    </row>
+    <row r="493" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H493" s="17"/>
+      <c r="I493" s="17"/>
+    </row>
+    <row r="494" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H494" s="17"/>
+      <c r="I494" s="17"/>
+    </row>
+    <row r="495" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H495" s="17"/>
+      <c r="I495" s="17"/>
+    </row>
+    <row r="496" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H496" s="17"/>
+      <c r="I496" s="17"/>
+    </row>
+    <row r="497" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H497" s="17"/>
+      <c r="I497" s="17"/>
+    </row>
+    <row r="498" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H498" s="17"/>
+      <c r="I498" s="17"/>
+    </row>
+    <row r="499" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H499" s="17"/>
+      <c r="I499" s="17"/>
+    </row>
+    <row r="500" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H500" s="17"/>
+      <c r="I500" s="17"/>
+    </row>
+    <row r="501" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H501" s="17"/>
+      <c r="I501" s="17"/>
+    </row>
+    <row r="502" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H502" s="17"/>
+      <c r="I502" s="17"/>
+    </row>
+    <row r="503" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H503" s="17"/>
+      <c r="I503" s="17"/>
+    </row>
+    <row r="504" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H504" s="17"/>
+      <c r="I504" s="17"/>
+    </row>
+    <row r="505" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H505" s="17"/>
+      <c r="I505" s="17"/>
+    </row>
+    <row r="506" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H506" s="17"/>
+      <c r="I506" s="17"/>
+    </row>
+    <row r="507" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H507" s="17"/>
+      <c r="I507" s="17"/>
+    </row>
+    <row r="508" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H508" s="17"/>
+      <c r="I508" s="17"/>
+    </row>
+    <row r="509" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H509" s="17"/>
+      <c r="I509" s="17"/>
+    </row>
+    <row r="510" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H510" s="17"/>
+      <c r="I510" s="17"/>
+    </row>
+    <row r="511" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H511" s="17"/>
+      <c r="I511" s="17"/>
+    </row>
+    <row r="512" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H512" s="17"/>
+      <c r="I512" s="17"/>
+    </row>
+    <row r="513" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H513" s="17"/>
+      <c r="I513" s="17"/>
+    </row>
+    <row r="514" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H514" s="17"/>
+      <c r="I514" s="17"/>
+    </row>
+    <row r="515" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H515" s="17"/>
+      <c r="I515" s="17"/>
+    </row>
+    <row r="516" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H516" s="17"/>
+      <c r="I516" s="17"/>
+    </row>
+    <row r="517" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H517" s="17"/>
+      <c r="I517" s="17"/>
+    </row>
+    <row r="518" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H518" s="17"/>
+      <c r="I518" s="17"/>
+    </row>
+    <row r="519" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H519" s="17"/>
+      <c r="I519" s="17"/>
+    </row>
+    <row r="520" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H520" s="17"/>
+      <c r="I520" s="17"/>
+    </row>
+    <row r="521" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H521" s="17"/>
+      <c r="I521" s="17"/>
+    </row>
+    <row r="522" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H522" s="17"/>
+      <c r="I522" s="17"/>
+    </row>
+    <row r="523" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H523" s="17"/>
+      <c r="I523" s="17"/>
+    </row>
+    <row r="524" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H524" s="17"/>
+      <c r="I524" s="17"/>
+    </row>
+    <row r="525" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H525" s="17"/>
+      <c r="I525" s="17"/>
+    </row>
+    <row r="526" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H526" s="17"/>
+      <c r="I526" s="17"/>
+    </row>
+    <row r="527" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H527" s="17"/>
+      <c r="I527" s="17"/>
+    </row>
+    <row r="528" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H528" s="17"/>
+      <c r="I528" s="17"/>
+    </row>
+    <row r="529" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H529" s="17"/>
+      <c r="I529" s="17"/>
+    </row>
+    <row r="530" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H530" s="17"/>
+      <c r="I530" s="17"/>
+    </row>
+    <row r="531" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H531" s="17"/>
+      <c r="I531" s="17"/>
+    </row>
+    <row r="532" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H532" s="17"/>
+      <c r="I532" s="17"/>
+    </row>
+    <row r="533" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H533" s="17"/>
+      <c r="I533" s="17"/>
+    </row>
+    <row r="534" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H534" s="17"/>
+      <c r="I534" s="17"/>
+    </row>
+    <row r="535" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H535" s="17"/>
+      <c r="I535" s="17"/>
+    </row>
+    <row r="536" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H536" s="17"/>
+      <c r="I536" s="17"/>
+    </row>
+    <row r="537" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H537" s="17"/>
+      <c r="I537" s="17"/>
+    </row>
+    <row r="538" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H538" s="17"/>
+      <c r="I538" s="17"/>
+    </row>
+    <row r="539" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H539" s="17"/>
+      <c r="I539" s="17"/>
+    </row>
+    <row r="540" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H540" s="17"/>
+      <c r="I540" s="17"/>
+    </row>
+    <row r="541" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H541" s="17"/>
+      <c r="I541" s="17"/>
+    </row>
+    <row r="542" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H542" s="17"/>
+      <c r="I542" s="17"/>
+    </row>
+    <row r="543" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H543" s="17"/>
+      <c r="I543" s="17"/>
+    </row>
+    <row r="544" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H544" s="17"/>
+      <c r="I544" s="17"/>
+    </row>
+    <row r="545" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H545" s="17"/>
+      <c r="I545" s="17"/>
+    </row>
+    <row r="546" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H546" s="17"/>
+      <c r="I546" s="17"/>
+    </row>
+    <row r="547" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H547" s="17"/>
+      <c r="I547" s="17"/>
+    </row>
+    <row r="548" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H548" s="17"/>
+      <c r="I548" s="17"/>
+    </row>
+    <row r="549" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H549" s="17"/>
+      <c r="I549" s="17"/>
+    </row>
+    <row r="550" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H550" s="17"/>
+      <c r="I550" s="17"/>
+    </row>
+    <row r="551" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H551" s="17"/>
+      <c r="I551" s="17"/>
+    </row>
+    <row r="552" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H552" s="17"/>
+      <c r="I552" s="17"/>
+    </row>
+    <row r="553" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H553" s="17"/>
+      <c r="I553" s="17"/>
+    </row>
+    <row r="554" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H554" s="17"/>
+      <c r="I554" s="17"/>
+    </row>
+    <row r="555" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H555" s="17"/>
+      <c r="I555" s="17"/>
+    </row>
+    <row r="556" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H556" s="17"/>
+      <c r="I556" s="17"/>
+    </row>
+    <row r="557" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H557" s="17"/>
+      <c r="I557" s="17"/>
+    </row>
+    <row r="558" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H558" s="17"/>
+      <c r="I558" s="17"/>
+    </row>
+    <row r="559" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H559" s="17"/>
+      <c r="I559" s="17"/>
+    </row>
+    <row r="560" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H560" s="17"/>
+      <c r="I560" s="17"/>
+    </row>
+    <row r="561" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H561" s="17"/>
+      <c r="I561" s="17"/>
+    </row>
+    <row r="562" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H562" s="17"/>
+      <c r="I562" s="17"/>
+    </row>
+    <row r="563" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H563" s="17"/>
+      <c r="I563" s="17"/>
+    </row>
+    <row r="564" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H564" s="17"/>
+      <c r="I564" s="17"/>
+    </row>
+    <row r="565" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H565" s="17"/>
+      <c r="I565" s="17"/>
+    </row>
+    <row r="566" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H566" s="17"/>
+      <c r="I566" s="17"/>
+    </row>
+    <row r="567" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H567" s="17"/>
+      <c r="I567" s="17"/>
+    </row>
+    <row r="568" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H568" s="17"/>
+      <c r="I568" s="17"/>
+    </row>
+    <row r="569" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H569" s="17"/>
+      <c r="I569" s="17"/>
+    </row>
+    <row r="570" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H570" s="17"/>
+      <c r="I570" s="17"/>
+    </row>
+    <row r="571" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H571" s="17"/>
+      <c r="I571" s="17"/>
+    </row>
+    <row r="572" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H572" s="17"/>
+      <c r="I572" s="17"/>
+    </row>
+    <row r="573" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H573" s="17"/>
+      <c r="I573" s="17"/>
+    </row>
+    <row r="574" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H574" s="17"/>
+      <c r="I574" s="17"/>
+    </row>
+    <row r="575" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H575" s="17"/>
+      <c r="I575" s="17"/>
+    </row>
+    <row r="576" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H576" s="17"/>
+      <c r="I576" s="17"/>
+    </row>
+    <row r="577" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H577" s="17"/>
+      <c r="I577" s="17"/>
+    </row>
+    <row r="578" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H578" s="17"/>
+      <c r="I578" s="17"/>
+    </row>
+    <row r="579" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H579" s="17"/>
+      <c r="I579" s="17"/>
+    </row>
+    <row r="580" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H580" s="17"/>
+      <c r="I580" s="17"/>
+    </row>
+    <row r="581" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H581" s="17"/>
+      <c r="I581" s="17"/>
+    </row>
+    <row r="582" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H582" s="17"/>
+      <c r="I582" s="17"/>
+    </row>
+    <row r="583" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H583" s="17"/>
+      <c r="I583" s="17"/>
+    </row>
+    <row r="584" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H584" s="17"/>
+      <c r="I584" s="17"/>
+    </row>
+    <row r="585" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H585" s="17"/>
+      <c r="I585" s="17"/>
+    </row>
+    <row r="586" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H586" s="17"/>
+      <c r="I586" s="17"/>
+    </row>
+    <row r="587" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H587" s="17"/>
+      <c r="I587" s="17"/>
+    </row>
+    <row r="588" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H588" s="17"/>
+      <c r="I588" s="17"/>
+    </row>
+    <row r="589" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H589" s="17"/>
+      <c r="I589" s="17"/>
+    </row>
+    <row r="590" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H590" s="17"/>
+      <c r="I590" s="17"/>
+    </row>
+    <row r="591" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H591" s="17"/>
+      <c r="I591" s="17"/>
+    </row>
+    <row r="592" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H592" s="17"/>
+      <c r="I592" s="17"/>
+    </row>
+    <row r="593" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H593" s="17"/>
+      <c r="I593" s="17"/>
+    </row>
+    <row r="594" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H594" s="17"/>
+      <c r="I594" s="17"/>
+    </row>
+    <row r="595" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H595" s="17"/>
+      <c r="I595" s="17"/>
+    </row>
+    <row r="596" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H596" s="17"/>
+      <c r="I596" s="17"/>
+    </row>
+    <row r="597" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H597" s="17"/>
+      <c r="I597" s="17"/>
+    </row>
+    <row r="598" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H598" s="17"/>
+      <c r="I598" s="17"/>
+    </row>
+    <row r="599" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H599" s="17"/>
+      <c r="I599" s="17"/>
+    </row>
+    <row r="600" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H600" s="17"/>
+      <c r="I600" s="17"/>
+    </row>
+    <row r="601" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H601" s="17"/>
+      <c r="I601" s="17"/>
+    </row>
+    <row r="602" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H602" s="17"/>
+      <c r="I602" s="17"/>
+    </row>
+    <row r="603" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H603" s="17"/>
+      <c r="I603" s="17"/>
+    </row>
+    <row r="604" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H604" s="17"/>
+      <c r="I604" s="17"/>
+    </row>
+    <row r="605" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H605" s="17"/>
+      <c r="I605" s="17"/>
+    </row>
+    <row r="606" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H606" s="17"/>
+      <c r="I606" s="17"/>
+    </row>
+    <row r="607" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H607" s="17"/>
+      <c r="I607" s="17"/>
+    </row>
+    <row r="608" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H608" s="17"/>
+      <c r="I608" s="17"/>
+    </row>
+    <row r="609" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H609" s="17"/>
+      <c r="I609" s="17"/>
+    </row>
+    <row r="610" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H610" s="17"/>
+      <c r="I610" s="17"/>
+    </row>
+    <row r="611" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H611" s="17"/>
+      <c r="I611" s="17"/>
+    </row>
+    <row r="612" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H612" s="17"/>
+      <c r="I612" s="17"/>
+    </row>
+    <row r="613" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H613" s="17"/>
+      <c r="I613" s="17"/>
+    </row>
+    <row r="614" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H614" s="17"/>
+      <c r="I614" s="17"/>
+    </row>
+    <row r="615" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H615" s="17"/>
+      <c r="I615" s="17"/>
+    </row>
+    <row r="616" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H616" s="17"/>
+      <c r="I616" s="17"/>
+    </row>
+    <row r="617" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H617" s="17"/>
+      <c r="I617" s="17"/>
+    </row>
+    <row r="618" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H618" s="17"/>
+      <c r="I618" s="17"/>
+    </row>
+    <row r="619" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H619" s="17"/>
+      <c r="I619" s="17"/>
+    </row>
+    <row r="620" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H620" s="17"/>
+      <c r="I620" s="17"/>
+    </row>
+    <row r="621" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H621" s="17"/>
+      <c r="I621" s="17"/>
+    </row>
+    <row r="622" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H622" s="17"/>
+      <c r="I622" s="17"/>
+    </row>
+    <row r="623" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H623" s="17"/>
+      <c r="I623" s="17"/>
+    </row>
+    <row r="624" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H624" s="17"/>
+      <c r="I624" s="17"/>
+    </row>
+    <row r="625" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H625" s="17"/>
+      <c r="I625" s="17"/>
+    </row>
+    <row r="626" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H626" s="17"/>
+      <c r="I626" s="17"/>
+    </row>
+    <row r="627" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H627" s="17"/>
+      <c r="I627" s="17"/>
+    </row>
+    <row r="628" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H628" s="17"/>
+      <c r="I628" s="17"/>
+    </row>
+    <row r="629" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H629" s="17"/>
+      <c r="I629" s="17"/>
+    </row>
+    <row r="630" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H630" s="17"/>
+      <c r="I630" s="17"/>
+    </row>
+    <row r="631" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H631" s="17"/>
+      <c r="I631" s="17"/>
+    </row>
+    <row r="632" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H632" s="17"/>
+      <c r="I632" s="17"/>
+    </row>
+    <row r="633" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H633" s="17"/>
+      <c r="I633" s="17"/>
+    </row>
+    <row r="634" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H634" s="17"/>
+      <c r="I634" s="17"/>
+    </row>
+    <row r="635" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H635" s="17"/>
+      <c r="I635" s="17"/>
+    </row>
+    <row r="636" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H636" s="17"/>
+      <c r="I636" s="17"/>
+    </row>
+    <row r="637" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H637" s="17"/>
+      <c r="I637" s="17"/>
+    </row>
+    <row r="638" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H638" s="17"/>
+      <c r="I638" s="17"/>
+    </row>
+    <row r="639" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H639" s="17"/>
+      <c r="I639" s="17"/>
+    </row>
+    <row r="640" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H640" s="17"/>
+      <c r="I640" s="17"/>
+    </row>
+    <row r="641" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H641" s="17"/>
+      <c r="I641" s="17"/>
+    </row>
+    <row r="642" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H642" s="17"/>
+      <c r="I642" s="17"/>
+    </row>
+    <row r="643" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H643" s="17"/>
+      <c r="I643" s="17"/>
+    </row>
+    <row r="644" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H644" s="17"/>
+      <c r="I644" s="17"/>
+    </row>
+    <row r="645" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H645" s="17"/>
+      <c r="I645" s="17"/>
+    </row>
+    <row r="646" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H646" s="17"/>
+      <c r="I646" s="17"/>
+    </row>
+    <row r="647" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H647" s="17"/>
+      <c r="I647" s="17"/>
+    </row>
+    <row r="648" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H648" s="17"/>
+      <c r="I648" s="17"/>
+    </row>
+    <row r="649" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H649" s="17"/>
+      <c r="I649" s="17"/>
+    </row>
+    <row r="650" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H650" s="17"/>
+      <c r="I650" s="17"/>
+    </row>
+    <row r="651" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H651" s="17"/>
+      <c r="I651" s="17"/>
+    </row>
+    <row r="652" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H652" s="17"/>
+      <c r="I652" s="17"/>
+    </row>
+    <row r="653" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H653" s="17"/>
+      <c r="I653" s="17"/>
+    </row>
+    <row r="654" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H654" s="17"/>
+      <c r="I654" s="17"/>
+    </row>
+    <row r="655" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H655" s="17"/>
+      <c r="I655" s="17"/>
+    </row>
+    <row r="656" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H656" s="17"/>
+      <c r="I656" s="17"/>
+    </row>
+    <row r="657" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H657" s="17"/>
+      <c r="I657" s="17"/>
+    </row>
+    <row r="658" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H658" s="17"/>
+      <c r="I658" s="17"/>
+    </row>
+    <row r="659" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H659" s="17"/>
+      <c r="I659" s="17"/>
+    </row>
+    <row r="660" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H660" s="17"/>
+      <c r="I660" s="17"/>
+    </row>
+    <row r="661" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H661" s="17"/>
+      <c r="I661" s="17"/>
+    </row>
+    <row r="662" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H662" s="17"/>
+      <c r="I662" s="17"/>
+    </row>
+    <row r="663" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H663" s="17"/>
+      <c r="I663" s="17"/>
+    </row>
+    <row r="664" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H664" s="17"/>
+      <c r="I664" s="17"/>
+    </row>
+    <row r="665" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H665" s="17"/>
+      <c r="I665" s="17"/>
+    </row>
+    <row r="666" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H666" s="17"/>
+      <c r="I666" s="17"/>
+    </row>
+    <row r="667" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H667" s="17"/>
+      <c r="I667" s="17"/>
+    </row>
+    <row r="668" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H668" s="17"/>
+      <c r="I668" s="17"/>
+    </row>
+    <row r="669" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H669" s="17"/>
+      <c r="I669" s="17"/>
+    </row>
+    <row r="670" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H670" s="17"/>
+      <c r="I670" s="17"/>
+    </row>
+    <row r="671" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H671" s="17"/>
+      <c r="I671" s="17"/>
+    </row>
+    <row r="672" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H672" s="17"/>
+      <c r="I672" s="17"/>
+    </row>
+    <row r="673" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H673" s="17"/>
+      <c r="I673" s="17"/>
+    </row>
+    <row r="674" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H674" s="17"/>
+      <c r="I674" s="17"/>
+    </row>
+    <row r="675" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H675" s="17"/>
+      <c r="I675" s="17"/>
+    </row>
+    <row r="676" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H676" s="17"/>
+      <c r="I676" s="17"/>
+    </row>
+    <row r="677" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H677" s="17"/>
+      <c r="I677" s="17"/>
+    </row>
+    <row r="678" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H678" s="17"/>
+      <c r="I678" s="17"/>
+    </row>
+    <row r="679" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H679" s="17"/>
+      <c r="I679" s="17"/>
+    </row>
+    <row r="680" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H680" s="17"/>
+      <c r="I680" s="17"/>
+    </row>
+    <row r="681" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H681" s="17"/>
+      <c r="I681" s="17"/>
+    </row>
+    <row r="682" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H682" s="17"/>
+      <c r="I682" s="17"/>
+    </row>
+    <row r="683" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H683" s="17"/>
+      <c r="I683" s="17"/>
+    </row>
+    <row r="684" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H684" s="17"/>
+      <c r="I684" s="17"/>
+    </row>
+    <row r="685" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H685" s="17"/>
+      <c r="I685" s="17"/>
+    </row>
+    <row r="686" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H686" s="17"/>
+      <c r="I686" s="17"/>
+    </row>
+    <row r="687" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H687" s="17"/>
+      <c r="I687" s="17"/>
+    </row>
+    <row r="688" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H688" s="17"/>
+      <c r="I688" s="17"/>
+    </row>
+    <row r="689" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H689" s="17"/>
+      <c r="I689" s="17"/>
+    </row>
+    <row r="690" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H690" s="17"/>
+      <c r="I690" s="17"/>
+    </row>
+    <row r="691" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H691" s="17"/>
+      <c r="I691" s="17"/>
+    </row>
+    <row r="692" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H692" s="17"/>
+      <c r="I692" s="17"/>
+    </row>
+    <row r="693" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H693" s="17"/>
+      <c r="I693" s="17"/>
+    </row>
+    <row r="694" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H694" s="17"/>
+      <c r="I694" s="17"/>
+    </row>
+    <row r="695" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H695" s="17"/>
+      <c r="I695" s="17"/>
+    </row>
+    <row r="696" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H696" s="17"/>
+      <c r="I696" s="17"/>
+    </row>
+    <row r="697" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H697" s="17"/>
+      <c r="I697" s="17"/>
+    </row>
+    <row r="698" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H698" s="17"/>
+      <c r="I698" s="17"/>
+    </row>
+    <row r="699" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H699" s="17"/>
+      <c r="I699" s="17"/>
+    </row>
+    <row r="700" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H700" s="17"/>
+      <c r="I700" s="17"/>
+    </row>
+    <row r="701" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H701" s="17"/>
+      <c r="I701" s="17"/>
+    </row>
+    <row r="702" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H702" s="17"/>
+      <c r="I702" s="17"/>
+    </row>
+    <row r="703" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H703" s="17"/>
+      <c r="I703" s="17"/>
+    </row>
+    <row r="704" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H704" s="17"/>
+      <c r="I704" s="17"/>
+    </row>
+    <row r="705" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H705" s="17"/>
+      <c r="I705" s="17"/>
+    </row>
+    <row r="706" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H706" s="17"/>
+      <c r="I706" s="17"/>
+    </row>
+    <row r="707" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H707" s="17"/>
+      <c r="I707" s="17"/>
+    </row>
+    <row r="708" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H708" s="17"/>
+      <c r="I708" s="17"/>
+    </row>
+    <row r="709" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H709" s="17"/>
+      <c r="I709" s="17"/>
+    </row>
+    <row r="710" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H710" s="17"/>
+      <c r="I710" s="17"/>
+    </row>
+    <row r="711" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H711" s="17"/>
+      <c r="I711" s="17"/>
+    </row>
+    <row r="712" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H712" s="17"/>
+      <c r="I712" s="17"/>
+    </row>
+    <row r="713" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H713" s="17"/>
+      <c r="I713" s="17"/>
+    </row>
+    <row r="714" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H714" s="17"/>
+      <c r="I714" s="17"/>
+    </row>
+    <row r="715" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H715" s="17"/>
+      <c r="I715" s="17"/>
+    </row>
+    <row r="716" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H716" s="17"/>
+      <c r="I716" s="17"/>
+    </row>
+    <row r="717" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H717" s="17"/>
+      <c r="I717" s="17"/>
+    </row>
+    <row r="718" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H718" s="17"/>
+      <c r="I718" s="17"/>
+    </row>
+    <row r="719" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H719" s="17"/>
+      <c r="I719" s="17"/>
+    </row>
+    <row r="720" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H720" s="17"/>
+      <c r="I720" s="17"/>
+    </row>
+    <row r="721" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H721" s="17"/>
+      <c r="I721" s="17"/>
+    </row>
+    <row r="722" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H722" s="17"/>
+      <c r="I722" s="17"/>
+    </row>
+    <row r="723" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H723" s="17"/>
+      <c r="I723" s="17"/>
+    </row>
+    <row r="724" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H724" s="17"/>
+      <c r="I724" s="17"/>
+    </row>
+    <row r="725" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H725" s="17"/>
+      <c r="I725" s="17"/>
+    </row>
+    <row r="726" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H726" s="17"/>
+      <c r="I726" s="17"/>
+    </row>
+    <row r="727" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H727" s="17"/>
+      <c r="I727" s="17"/>
+    </row>
+    <row r="728" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H728" s="17"/>
+      <c r="I728" s="17"/>
+    </row>
+    <row r="729" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H729" s="17"/>
+      <c r="I729" s="17"/>
+    </row>
+    <row r="730" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H730" s="17"/>
+      <c r="I730" s="17"/>
+    </row>
+    <row r="731" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H731" s="17"/>
+      <c r="I731" s="17"/>
+    </row>
+    <row r="732" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H732" s="17"/>
+      <c r="I732" s="17"/>
+    </row>
+    <row r="733" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H733" s="17"/>
+      <c r="I733" s="17"/>
+    </row>
+    <row r="734" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H734" s="17"/>
+      <c r="I734" s="17"/>
+    </row>
+    <row r="735" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H735" s="17"/>
+      <c r="I735" s="17"/>
+    </row>
+    <row r="736" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H736" s="17"/>
+      <c r="I736" s="17"/>
+    </row>
+    <row r="737" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H737" s="17"/>
+      <c r="I737" s="17"/>
+    </row>
+    <row r="738" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H738" s="17"/>
+      <c r="I738" s="17"/>
+    </row>
+    <row r="739" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H739" s="17"/>
+      <c r="I739" s="17"/>
+    </row>
+    <row r="740" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H740" s="17"/>
+      <c r="I740" s="17"/>
+    </row>
+    <row r="741" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H741" s="17"/>
+      <c r="I741" s="17"/>
+    </row>
+    <row r="742" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H742" s="17"/>
+      <c r="I742" s="17"/>
+    </row>
+    <row r="743" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H743" s="17"/>
+      <c r="I743" s="17"/>
+    </row>
+    <row r="744" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H744" s="17"/>
+      <c r="I744" s="17"/>
+    </row>
+    <row r="745" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H745" s="17"/>
+      <c r="I745" s="17"/>
+    </row>
+    <row r="746" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H746" s="17"/>
+      <c r="I746" s="17"/>
+    </row>
+    <row r="747" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H747" s="17"/>
+      <c r="I747" s="17"/>
+    </row>
+    <row r="748" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H748" s="17"/>
+      <c r="I748" s="17"/>
+    </row>
+    <row r="749" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H749" s="17"/>
+      <c r="I749" s="17"/>
+    </row>
+    <row r="750" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H750" s="17"/>
+      <c r="I750" s="17"/>
+    </row>
+    <row r="751" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H751" s="17"/>
+      <c r="I751" s="17"/>
+    </row>
+    <row r="752" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H752" s="17"/>
+      <c r="I752" s="17"/>
+    </row>
+    <row r="753" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H753" s="17"/>
+      <c r="I753" s="17"/>
+    </row>
+    <row r="754" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H754" s="17"/>
+      <c r="I754" s="17"/>
+    </row>
+    <row r="755" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H755" s="17"/>
+      <c r="I755" s="17"/>
+    </row>
+    <row r="756" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H756" s="17"/>
+      <c r="I756" s="17"/>
+    </row>
+    <row r="757" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H757" s="17"/>
+      <c r="I757" s="17"/>
+    </row>
+    <row r="758" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H758" s="17"/>
+      <c r="I758" s="17"/>
+    </row>
+    <row r="759" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H759" s="17"/>
+      <c r="I759" s="17"/>
+    </row>
+    <row r="760" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H760" s="17"/>
+      <c r="I760" s="17"/>
+    </row>
+    <row r="761" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H761" s="17"/>
+      <c r="I761" s="17"/>
+    </row>
+    <row r="762" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H762" s="17"/>
+      <c r="I762" s="17"/>
+    </row>
+    <row r="763" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H763" s="17"/>
+      <c r="I763" s="17"/>
+    </row>
+    <row r="764" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H764" s="17"/>
+      <c r="I764" s="17"/>
+    </row>
+    <row r="765" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H765" s="17"/>
+      <c r="I765" s="17"/>
+    </row>
+    <row r="766" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H766" s="17"/>
+      <c r="I766" s="17"/>
+    </row>
+    <row r="767" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H767" s="17"/>
+      <c r="I767" s="17"/>
+    </row>
+    <row r="768" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H768" s="17"/>
+      <c r="I768" s="17"/>
+    </row>
+    <row r="769" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H769" s="17"/>
+      <c r="I769" s="17"/>
+    </row>
+    <row r="770" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H770" s="17"/>
+      <c r="I770" s="17"/>
+    </row>
+    <row r="771" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H771" s="17"/>
+      <c r="I771" s="17"/>
+    </row>
+    <row r="772" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H772" s="17"/>
+      <c r="I772" s="17"/>
+    </row>
+    <row r="773" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H773" s="17"/>
+      <c r="I773" s="17"/>
+    </row>
+    <row r="774" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H774" s="17"/>
+      <c r="I774" s="17"/>
+    </row>
+    <row r="775" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H775" s="17"/>
+      <c r="I775" s="17"/>
+    </row>
+    <row r="776" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H776" s="17"/>
+      <c r="I776" s="17"/>
+    </row>
+    <row r="777" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H777" s="17"/>
+      <c r="I777" s="17"/>
+    </row>
+    <row r="778" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H778" s="17"/>
+      <c r="I778" s="17"/>
+    </row>
+    <row r="779" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H779" s="17"/>
+      <c r="I779" s="17"/>
+    </row>
+    <row r="780" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H780" s="17"/>
+      <c r="I780" s="17"/>
+    </row>
+    <row r="781" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H781" s="17"/>
+      <c r="I781" s="17"/>
+    </row>
+    <row r="782" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H782" s="17"/>
+      <c r="I782" s="17"/>
+    </row>
+    <row r="783" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H783" s="17"/>
+      <c r="I783" s="17"/>
+    </row>
+    <row r="784" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H784" s="17"/>
+      <c r="I784" s="17"/>
+    </row>
+    <row r="785" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H785" s="17"/>
+      <c r="I785" s="17"/>
+    </row>
+    <row r="786" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H786" s="17"/>
+      <c r="I786" s="17"/>
+    </row>
+    <row r="787" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H787" s="17"/>
+      <c r="I787" s="17"/>
+    </row>
+    <row r="788" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H788" s="17"/>
+      <c r="I788" s="17"/>
+    </row>
+    <row r="789" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H789" s="17"/>
+      <c r="I789" s="17"/>
+    </row>
+    <row r="790" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H790" s="17"/>
+      <c r="I790" s="17"/>
+    </row>
+    <row r="791" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H791" s="17"/>
+      <c r="I791" s="17"/>
+    </row>
+    <row r="792" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H792" s="17"/>
+      <c r="I792" s="17"/>
+    </row>
+    <row r="793" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H793" s="17"/>
+      <c r="I793" s="17"/>
+    </row>
+    <row r="794" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H794" s="17"/>
+      <c r="I794" s="17"/>
+    </row>
+    <row r="795" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H795" s="17"/>
+      <c r="I795" s="17"/>
+    </row>
+    <row r="796" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H796" s="17"/>
+      <c r="I796" s="17"/>
+    </row>
+    <row r="797" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H797" s="17"/>
+      <c r="I797" s="17"/>
+    </row>
+    <row r="798" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H798" s="17"/>
+      <c r="I798" s="17"/>
+    </row>
+    <row r="799" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H799" s="17"/>
+      <c r="I799" s="17"/>
+    </row>
+    <row r="800" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H800" s="17"/>
+      <c r="I800" s="17"/>
+    </row>
+    <row r="801" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H801" s="17"/>
+      <c r="I801" s="17"/>
+    </row>
+    <row r="802" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H802" s="17"/>
+      <c r="I802" s="17"/>
+    </row>
+    <row r="803" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H803" s="17"/>
+      <c r="I803" s="17"/>
+    </row>
+    <row r="804" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H804" s="17"/>
+      <c r="I804" s="17"/>
+    </row>
+    <row r="805" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H805" s="17"/>
+      <c r="I805" s="17"/>
+    </row>
+    <row r="806" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H806" s="17"/>
+      <c r="I806" s="17"/>
+    </row>
+    <row r="807" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H807" s="17"/>
+      <c r="I807" s="17"/>
+    </row>
+    <row r="808" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H808" s="17"/>
+      <c r="I808" s="17"/>
+    </row>
+    <row r="809" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H809" s="17"/>
+      <c r="I809" s="17"/>
+    </row>
+    <row r="810" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H810" s="17"/>
+      <c r="I810" s="17"/>
+    </row>
+    <row r="811" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H811" s="17"/>
+      <c r="I811" s="17"/>
+    </row>
+    <row r="812" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H812" s="17"/>
+      <c r="I812" s="17"/>
+    </row>
+    <row r="813" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H813" s="17"/>
+      <c r="I813" s="17"/>
+    </row>
+    <row r="814" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H814" s="17"/>
+      <c r="I814" s="17"/>
+    </row>
+    <row r="815" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H815" s="17"/>
+      <c r="I815" s="17"/>
+    </row>
+    <row r="816" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H816" s="17"/>
+      <c r="I816" s="17"/>
+    </row>
+    <row r="817" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H817" s="17"/>
+      <c r="I817" s="17"/>
+    </row>
+    <row r="818" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H818" s="17"/>
+      <c r="I818" s="17"/>
+    </row>
+    <row r="819" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H819" s="17"/>
+      <c r="I819" s="17"/>
+    </row>
+    <row r="820" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H820" s="17"/>
+      <c r="I820" s="17"/>
+    </row>
+    <row r="821" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H821" s="17"/>
+      <c r="I821" s="17"/>
+    </row>
+    <row r="822" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H822" s="17"/>
+      <c r="I822" s="17"/>
+    </row>
+    <row r="823" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H823" s="17"/>
+      <c r="I823" s="17"/>
+    </row>
+    <row r="824" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H824" s="17"/>
+      <c r="I824" s="17"/>
+    </row>
+    <row r="825" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H825" s="17"/>
+      <c r="I825" s="17"/>
+    </row>
+    <row r="826" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H826" s="17"/>
+      <c r="I826" s="17"/>
+    </row>
+    <row r="827" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H827" s="17"/>
+      <c r="I827" s="17"/>
+    </row>
+    <row r="828" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H828" s="17"/>
+      <c r="I828" s="17"/>
+    </row>
+    <row r="829" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H829" s="17"/>
+      <c r="I829" s="17"/>
+    </row>
+    <row r="830" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H830" s="17"/>
+      <c r="I830" s="17"/>
+    </row>
+    <row r="831" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H831" s="17"/>
+      <c r="I831" s="17"/>
+    </row>
+    <row r="832" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H832" s="17"/>
+      <c r="I832" s="17"/>
+    </row>
+    <row r="833" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H833" s="17"/>
+      <c r="I833" s="17"/>
+    </row>
+    <row r="834" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H834" s="17"/>
+      <c r="I834" s="17"/>
+    </row>
+    <row r="835" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H835" s="17"/>
+      <c r="I835" s="17"/>
+    </row>
+    <row r="836" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H836" s="17"/>
+      <c r="I836" s="17"/>
+    </row>
+    <row r="837" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H837" s="17"/>
+      <c r="I837" s="17"/>
+    </row>
+    <row r="838" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H838" s="17"/>
+      <c r="I838" s="17"/>
+    </row>
+    <row r="839" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H839" s="17"/>
+      <c r="I839" s="17"/>
+    </row>
+    <row r="840" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H840" s="17"/>
+      <c r="I840" s="17"/>
+    </row>
+    <row r="841" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H841" s="17"/>
+      <c r="I841" s="17"/>
+    </row>
+    <row r="842" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H842" s="17"/>
+      <c r="I842" s="17"/>
+    </row>
+    <row r="843" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H843" s="17"/>
+      <c r="I843" s="17"/>
+    </row>
+    <row r="844" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H844" s="17"/>
+      <c r="I844" s="17"/>
+    </row>
+    <row r="845" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H845" s="17"/>
+      <c r="I845" s="17"/>
+    </row>
+    <row r="846" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H846" s="17"/>
+      <c r="I846" s="17"/>
+    </row>
+    <row r="847" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H847" s="17"/>
+      <c r="I847" s="17"/>
+    </row>
+    <row r="848" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H848" s="17"/>
+      <c r="I848" s="17"/>
+    </row>
+    <row r="849" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H849" s="17"/>
+      <c r="I849" s="17"/>
+    </row>
+    <row r="850" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H850" s="17"/>
+      <c r="I850" s="17"/>
+    </row>
+    <row r="851" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H851" s="17"/>
+      <c r="I851" s="17"/>
+    </row>
+    <row r="852" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H852" s="17"/>
+      <c r="I852" s="17"/>
+    </row>
+    <row r="853" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H853" s="17"/>
+      <c r="I853" s="17"/>
+    </row>
+    <row r="854" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H854" s="17"/>
+      <c r="I854" s="17"/>
+    </row>
+    <row r="855" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H855" s="17"/>
+      <c r="I855" s="17"/>
+    </row>
+    <row r="856" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H856" s="17"/>
+      <c r="I856" s="17"/>
+    </row>
+    <row r="857" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H857" s="17"/>
+      <c r="I857" s="17"/>
+    </row>
+    <row r="858" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H858" s="17"/>
+      <c r="I858" s="17"/>
+    </row>
+    <row r="859" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H859" s="17"/>
+      <c r="I859" s="17"/>
+    </row>
+    <row r="860" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H860" s="17"/>
+      <c r="I860" s="17"/>
+    </row>
+    <row r="861" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H861" s="17"/>
+      <c r="I861" s="17"/>
+    </row>
+    <row r="862" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H862" s="17"/>
+      <c r="I862" s="17"/>
+    </row>
+    <row r="863" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H863" s="17"/>
+      <c r="I863" s="17"/>
+    </row>
+    <row r="864" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H864" s="17"/>
+      <c r="I864" s="17"/>
+    </row>
+    <row r="865" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H865" s="17"/>
+      <c r="I865" s="17"/>
+    </row>
+    <row r="866" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H866" s="17"/>
+      <c r="I866" s="17"/>
+    </row>
+    <row r="867" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H867" s="17"/>
+      <c r="I867" s="17"/>
+    </row>
+    <row r="868" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H868" s="17"/>
+      <c r="I868" s="17"/>
+    </row>
+    <row r="869" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H869" s="17"/>
+      <c r="I869" s="17"/>
+    </row>
+    <row r="870" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H870" s="17"/>
+      <c r="I870" s="17"/>
+    </row>
+    <row r="871" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H871" s="17"/>
+      <c r="I871" s="17"/>
+    </row>
+    <row r="872" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H872" s="17"/>
+      <c r="I872" s="17"/>
+    </row>
+    <row r="873" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H873" s="17"/>
+      <c r="I873" s="17"/>
+    </row>
+    <row r="874" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H874" s="17"/>
+      <c r="I874" s="17"/>
+    </row>
+    <row r="875" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H875" s="17"/>
+      <c r="I875" s="17"/>
+    </row>
+    <row r="876" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H876" s="17"/>
+      <c r="I876" s="17"/>
+    </row>
+    <row r="877" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H877" s="17"/>
+      <c r="I877" s="17"/>
+    </row>
+    <row r="878" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H878" s="17"/>
+      <c r="I878" s="17"/>
+    </row>
+    <row r="879" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H879" s="17"/>
+      <c r="I879" s="17"/>
+    </row>
+    <row r="880" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H880" s="17"/>
+      <c r="I880" s="17"/>
+    </row>
+    <row r="881" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H881" s="17"/>
+      <c r="I881" s="17"/>
+    </row>
+    <row r="882" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H882" s="17"/>
+      <c r="I882" s="17"/>
+    </row>
+    <row r="883" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H883" s="17"/>
+      <c r="I883" s="17"/>
+    </row>
+    <row r="884" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H884" s="17"/>
+      <c r="I884" s="17"/>
+    </row>
+    <row r="885" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H885" s="17"/>
+      <c r="I885" s="17"/>
+    </row>
+    <row r="886" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H886" s="17"/>
+      <c r="I886" s="17"/>
+    </row>
+    <row r="887" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H887" s="17"/>
+      <c r="I887" s="17"/>
+    </row>
+    <row r="888" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H888" s="17"/>
+      <c r="I888" s="17"/>
+    </row>
+    <row r="889" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H889" s="17"/>
+      <c r="I889" s="17"/>
+    </row>
+    <row r="890" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H890" s="17"/>
+      <c r="I890" s="17"/>
+    </row>
+    <row r="891" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H891" s="17"/>
+      <c r="I891" s="17"/>
+    </row>
+    <row r="892" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H892" s="17"/>
+      <c r="I892" s="17"/>
+    </row>
+    <row r="893" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H893" s="17"/>
+      <c r="I893" s="17"/>
+    </row>
+    <row r="894" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H894" s="17"/>
+      <c r="I894" s="17"/>
+    </row>
+    <row r="895" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H895" s="17"/>
+      <c r="I895" s="17"/>
+    </row>
+    <row r="896" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H896" s="17"/>
+      <c r="I896" s="17"/>
+    </row>
+    <row r="897" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H897" s="17"/>
+      <c r="I897" s="17"/>
+    </row>
+    <row r="898" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H898" s="17"/>
+      <c r="I898" s="17"/>
+    </row>
+    <row r="899" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H899" s="17"/>
+      <c r="I899" s="17"/>
+    </row>
+    <row r="900" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H900" s="17"/>
+      <c r="I900" s="17"/>
+    </row>
+    <row r="901" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H901" s="17"/>
+      <c r="I901" s="17"/>
+    </row>
+    <row r="902" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H902" s="17"/>
+      <c r="I902" s="17"/>
+    </row>
+    <row r="903" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H903" s="17"/>
+      <c r="I903" s="17"/>
+    </row>
+    <row r="904" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H904" s="17"/>
+      <c r="I904" s="17"/>
+    </row>
+    <row r="905" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H905" s="17"/>
+      <c r="I905" s="17"/>
+    </row>
+    <row r="906" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H906" s="17"/>
+      <c r="I906" s="17"/>
+    </row>
+    <row r="907" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H907" s="17"/>
+      <c r="I907" s="17"/>
+    </row>
+    <row r="908" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H908" s="17"/>
+      <c r="I908" s="17"/>
+    </row>
+    <row r="909" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H909" s="17"/>
+      <c r="I909" s="17"/>
+    </row>
+    <row r="910" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H910" s="17"/>
+      <c r="I910" s="17"/>
+    </row>
+    <row r="911" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H911" s="17"/>
+      <c r="I911" s="17"/>
+    </row>
+    <row r="912" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H912" s="17"/>
+      <c r="I912" s="17"/>
+    </row>
+    <row r="913" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H913" s="17"/>
+      <c r="I913" s="17"/>
+    </row>
+    <row r="914" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H914" s="17"/>
+      <c r="I914" s="17"/>
+    </row>
+    <row r="915" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H915" s="17"/>
+      <c r="I915" s="17"/>
+    </row>
+    <row r="916" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H916" s="17"/>
+      <c r="I916" s="17"/>
+    </row>
+    <row r="917" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H917" s="17"/>
+      <c r="I917" s="17"/>
+    </row>
+    <row r="918" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H918" s="17"/>
+      <c r="I918" s="17"/>
+    </row>
+    <row r="919" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H919" s="17"/>
+      <c r="I919" s="17"/>
+    </row>
+    <row r="920" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H920" s="17"/>
+      <c r="I920" s="17"/>
+    </row>
+    <row r="921" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H921" s="17"/>
+      <c r="I921" s="17"/>
+    </row>
+    <row r="922" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H922" s="17"/>
+      <c r="I922" s="17"/>
+    </row>
+    <row r="923" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H923" s="17"/>
+      <c r="I923" s="17"/>
+    </row>
+    <row r="924" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H924" s="17"/>
+      <c r="I924" s="17"/>
+    </row>
+    <row r="925" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H925" s="17"/>
+      <c r="I925" s="17"/>
+    </row>
+    <row r="926" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H926" s="17"/>
+      <c r="I926" s="17"/>
+    </row>
+    <row r="927" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H927" s="17"/>
+      <c r="I927" s="17"/>
+    </row>
+    <row r="928" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H928" s="17"/>
+      <c r="I928" s="17"/>
+    </row>
+    <row r="929" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H929" s="17"/>
+      <c r="I929" s="17"/>
+    </row>
+    <row r="930" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H930" s="17"/>
+      <c r="I930" s="17"/>
+    </row>
+    <row r="931" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H931" s="17"/>
+      <c r="I931" s="17"/>
+    </row>
+    <row r="932" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H932" s="17"/>
+      <c r="I932" s="17"/>
+    </row>
+    <row r="933" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H933" s="17"/>
+      <c r="I933" s="17"/>
+    </row>
+    <row r="934" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H934" s="17"/>
+      <c r="I934" s="17"/>
+    </row>
+    <row r="935" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H935" s="17"/>
+      <c r="I935" s="17"/>
+    </row>
+    <row r="936" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H936" s="17"/>
+      <c r="I936" s="17"/>
+    </row>
+    <row r="937" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H937" s="17"/>
+      <c r="I937" s="17"/>
+    </row>
+    <row r="938" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H938" s="17"/>
+      <c r="I938" s="17"/>
+    </row>
+    <row r="939" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H939" s="17"/>
+      <c r="I939" s="17"/>
+    </row>
+    <row r="940" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H940" s="17"/>
+      <c r="I940" s="17"/>
+    </row>
+    <row r="941" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H941" s="17"/>
+      <c r="I941" s="17"/>
+    </row>
+    <row r="942" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H942" s="17"/>
+      <c r="I942" s="17"/>
+    </row>
+    <row r="943" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H943" s="17"/>
+      <c r="I943" s="17"/>
+    </row>
+    <row r="944" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H944" s="17"/>
+      <c r="I944" s="17"/>
+    </row>
+    <row r="945" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H945" s="17"/>
+      <c r="I945" s="17"/>
+    </row>
+    <row r="946" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H946" s="17"/>
+      <c r="I946" s="17"/>
+    </row>
+    <row r="947" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H947" s="17"/>
+      <c r="I947" s="17"/>
+    </row>
+    <row r="948" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H948" s="17"/>
+      <c r="I948" s="17"/>
+    </row>
+    <row r="949" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H949" s="17"/>
+      <c r="I949" s="17"/>
+    </row>
+    <row r="950" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H950" s="17"/>
+      <c r="I950" s="17"/>
+    </row>
+    <row r="951" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H951" s="17"/>
+      <c r="I951" s="17"/>
+    </row>
+    <row r="952" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H952" s="17"/>
+      <c r="I952" s="17"/>
+    </row>
+    <row r="953" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H953" s="17"/>
+      <c r="I953" s="17"/>
+    </row>
+    <row r="954" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H954" s="17"/>
+      <c r="I954" s="17"/>
+    </row>
+    <row r="955" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H955" s="17"/>
+      <c r="I955" s="17"/>
+    </row>
+    <row r="956" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H956" s="17"/>
+      <c r="I956" s="17"/>
+    </row>
+    <row r="957" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H957" s="17"/>
+      <c r="I957" s="17"/>
+    </row>
+    <row r="958" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H958" s="17"/>
+      <c r="I958" s="17"/>
+    </row>
+    <row r="959" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H959" s="17"/>
+      <c r="I959" s="17"/>
+    </row>
+    <row r="960" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H960" s="17"/>
+      <c r="I960" s="17"/>
+    </row>
+    <row r="961" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H961" s="17"/>
+      <c r="I961" s="17"/>
+    </row>
+    <row r="962" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H962" s="17"/>
+      <c r="I962" s="17"/>
+    </row>
+    <row r="963" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H963" s="17"/>
+      <c r="I963" s="17"/>
+    </row>
+    <row r="964" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H964" s="17"/>
+      <c r="I964" s="17"/>
+    </row>
+    <row r="965" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H965" s="17"/>
+      <c r="I965" s="17"/>
+    </row>
+    <row r="966" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H966" s="17"/>
+      <c r="I966" s="17"/>
+    </row>
+    <row r="967" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H967" s="17"/>
+      <c r="I967" s="17"/>
+    </row>
+    <row r="968" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H968" s="17"/>
+      <c r="I968" s="17"/>
+    </row>
+    <row r="969" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H969" s="17"/>
+      <c r="I969" s="17"/>
+    </row>
+    <row r="970" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H970" s="17"/>
+      <c r="I970" s="17"/>
+    </row>
+    <row r="971" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H971" s="17"/>
+      <c r="I971" s="17"/>
+    </row>
+    <row r="972" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H972" s="17"/>
+      <c r="I972" s="17"/>
+    </row>
+    <row r="973" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H973" s="17"/>
+      <c r="I973" s="17"/>
+    </row>
+    <row r="974" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H974" s="17"/>
+      <c r="I974" s="17"/>
+    </row>
+    <row r="975" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H975" s="17"/>
+      <c r="I975" s="17"/>
+    </row>
+    <row r="976" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H976" s="17"/>
+      <c r="I976" s="17"/>
+    </row>
+    <row r="977" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H977" s="17"/>
+      <c r="I977" s="17"/>
+    </row>
+    <row r="978" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H978" s="17"/>
+      <c r="I978" s="17"/>
+    </row>
+    <row r="979" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H979" s="17"/>
+      <c r="I979" s="17"/>
+    </row>
+    <row r="980" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H980" s="17"/>
+      <c r="I980" s="17"/>
+    </row>
+    <row r="981" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H981" s="17"/>
+      <c r="I981" s="17"/>
+    </row>
+    <row r="982" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H982" s="17"/>
+      <c r="I982" s="17"/>
+    </row>
+    <row r="983" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H983" s="17"/>
+      <c r="I983" s="17"/>
+    </row>
+    <row r="984" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H984" s="17"/>
+      <c r="I984" s="17"/>
+    </row>
+    <row r="985" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H985" s="17"/>
+      <c r="I985" s="17"/>
+    </row>
+    <row r="986" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H986" s="17"/>
+      <c r="I986" s="17"/>
+    </row>
+    <row r="987" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H987" s="17"/>
+      <c r="I987" s="17"/>
+    </row>
+    <row r="988" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H988" s="17"/>
+      <c r="I988" s="17"/>
+    </row>
+    <row r="989" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H989" s="17"/>
+      <c r="I989" s="17"/>
+    </row>
+    <row r="990" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H990" s="17"/>
+      <c r="I990" s="17"/>
+    </row>
+    <row r="991" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H991" s="17"/>
+      <c r="I991" s="17"/>
+    </row>
+    <row r="992" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H992" s="17"/>
+      <c r="I992" s="17"/>
+    </row>
+    <row r="993" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H993" s="17"/>
+      <c r="I993" s="17"/>
+    </row>
+    <row r="994" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H994" s="17"/>
+      <c r="I994" s="17"/>
+    </row>
+    <row r="995" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H995" s="17"/>
+      <c r="I995" s="17"/>
+    </row>
+    <row r="996" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H996" s="17"/>
+      <c r="I996" s="17"/>
+    </row>
+    <row r="997" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H997" s="17"/>
+      <c r="I997" s="17"/>
+    </row>
+    <row r="998" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H998" s="17"/>
+      <c r="I998" s="17"/>
+    </row>
+    <row r="999" spans="8:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="H999" s="17"/>
+      <c r="I999" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -587,7 +5265,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K367</xm:sqref>
+          <xm:sqref>K6:K367</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -603,31 +5281,31 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -232,9 +232,6 @@
 </t>
   </si>
   <si>
-    <t>Verify that the pop-up message text is the required text to appear</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 UserName : Mariam
@@ -302,6 +299,94 @@
   <si>
     <t>Pop-up message text is "There is no near
  Restaurants from you :( "</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Substring of restaurant's name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "kf"</t>
+    </r>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Write Part of restaurant's name ( use test data)
+6- Click on "Search Button"</t>
+  </si>
+  <si>
+    <t>Restaurants that contains the substring in 
+it's name appeared</t>
+  </si>
+  <si>
+    <t>Foodies_Bug005</t>
+  </si>
+  <si>
+    <t>No Restaurant Displayed.</t>
+  </si>
+  <si>
+    <t>System Failed to display a pop-up message text is the
+ required text to appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User can't search for restaurant by substring
+ of restaurant's name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Login with valid user 
+ credientials .
+2- There'a a restaurant that conatin
+the substring already exit in database. </t>
   </si>
 </sst>
 </file>
@@ -583,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,9 +722,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -946,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,10 +1069,10 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1116,10 +1198,10 @@
       <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1154,10 +1236,10 @@
       <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1175,10 +1257,10 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>37</v>
@@ -1187,10 +1269,10 @@
         <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>23</v>
@@ -1212,23 +1294,23 @@
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -1237,7 +1319,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>10</v>
@@ -1246,16 +1328,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="15" x14ac:dyDescent="0.3">
-      <c r="I6" s="19" t="s">
-        <v>22</v>
-      </c>
+    <row r="6" spans="1:103" s="5" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:103" ht="15" x14ac:dyDescent="0.3">
       <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1263,7 +1370,7 @@
       <c r="H8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1271,7 +1378,7 @@
       <c r="H9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1287,7 +1394,7 @@
       <c r="H11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1295,7 +1402,7 @@
       <c r="H12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1303,7 +1410,7 @@
       <c r="H13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5265,7 +5372,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K367</xm:sqref>
+          <xm:sqref>K7:K367</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Decription</t>
   </si>
@@ -71,13 +68,262 @@
   </si>
   <si>
     <t>Test Data</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_T004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel Button Clear reasult of searching about user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Register with valid Admin account credientials </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName : DDdd
+Password : DDdd12@@
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">url:http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData. 
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login".
+4- Press Delete User 
+5- write "Dina" in search 
+6- Click on "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>cancel button will clear result of searching about users</t>
+  </si>
+  <si>
+    <t>Dina Ibrahim</t>
+  </si>
+  <si>
+    <t>Cancel Button doesn't work</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_053_T005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData. 
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login".
+4- Press "Add Restaurant" 
+5-Press "Submit" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when admin clicks on submit button to 
+add new restaurant with valid data, system 
+shall display message says “restaurant added 
+successfully</t>
+  </si>
+  <si>
+    <t>Message doesn't display</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_054_T006</t>
+  </si>
+  <si>
+    <t>Message Displayed "user deleted successfully" 
+after the admin delete the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with valid Admin account credientials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData. 
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login".
+4- Press Delete User 
+5- write "Dina" in search 
+6- Click on "Delete" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system shall display message says “user deleted successfully”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't recive any message to know this user deleted successuffely or not </t>
+  </si>
+  <si>
+    <t>Foodies_SRS_056_T008</t>
+  </si>
+  <si>
+    <t>Verify order button will display Popup message 
+“phone number of restaurant” and has confirm
+ and cancel buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add New User with valid user account credientials </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName : Dina
+Password : DDdd12@@
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">url:http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2-  Enter Valid data in all fields ( use testData).
+3- Click on "Login" Button 
+4- press "Ok" on Popup message 
+5- go to search and write "KFC" then press search
+6- press "Menu" Button
+7- press "Order" Button
+</t>
+  </si>
+  <si>
+    <t>order button  display Popup message “phone number of restaurant” and has confirm and cancel buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel Button doesn't found </t>
+  </si>
+  <si>
+    <t>Foodies_SRS_057_T009</t>
+  </si>
+  <si>
+    <t>Verify order button will display Popup message 
+“phone number of restaurant and congratulation 
+you have one order free” If this was his fifth order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2-  Enter Valid data in all fields ( use testData).
+3- Click on "Login" Button 
+4- press "Ok" on Popup message 
+5- go to search and write "KFC" then press search
+6- press "Menu" Button
+7- press "Order" Button then Press"OK"
+8- press "Order" Button then Press"OK"
+9- press "Order" Button then Press"OK"
+10- press "Order" Button then Press"OK"
+11- press "Order" Button then Press"OK"
+12- press "Order" Button then Press"OK"
+</t>
+  </si>
+  <si>
+    <t>order button will display Popup message 
+“phone number of restaurant and congratulation 
+you have one order free” If this was his fifth order</t>
+  </si>
+  <si>
+    <t>shall be get this message in 6th order 
+but I get it on 7th order</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_058_T010</t>
+  </si>
+  <si>
+    <t>Verify click on cancel button on order 
+message the order will be canceled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> click on cancel button on order 
+message the order will be canceled</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>DR_ID</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D001</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Mariam Nessim</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_053_D002</t>
+  </si>
+  <si>
+    <t>verify when admin clicks on submit button to add new restaurant with valid data, system shall display message says “restaurant added successfully</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_054_D003</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_056_D004</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_057_D005</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_058_D006</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +338,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -141,13 +411,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,64 +720,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY1"/>
+  <dimension ref="A1:CZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="13" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -576,6 +874,271 @@
       <c r="CW1" s="2"/>
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+    </row>
+    <row r="2" spans="1:104" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:104" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:104" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:104" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:104" ht="303.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,7 +1150,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K367</xm:sqref>
+          <xm:sqref>L2:L360</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -603,31 +1166,31 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Decription</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Tester Name</t>
+  </si>
+  <si>
+    <t>SnapShots</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
   <dimension ref="A1:CZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +742,7 @@
     <col min="9" max="9" width="17.109375" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="13" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -785,7 +788,9 @@
       <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -1008,7 +1013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:104" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:104" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,27 +725,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="13" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:104" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="CY1" s="2"/>
       <c r="CZ1" s="2"/>
     </row>
-    <row r="2" spans="1:104" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -916,7 +916,7 @@
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
         <v>53</v>
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:104" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:104" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -960,7 +960,7 @@
         <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
         <v>53</v>
@@ -969,7 +969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:104" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:104" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>52</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>53</v>
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:104" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:104" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>53</v>
@@ -1057,7 +1057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:104" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:104" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:104" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:104" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
         <v>53</v>
@@ -1171,29 +1171,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>Decription</t>
   </si>
@@ -319,14 +319,339 @@
     <t>Tester Name</t>
   </si>
   <si>
-    <t>SnapShots</t>
+    <t>Foodies_Bug001</t>
+  </si>
+  <si>
+    <t>The "Previous Button" is not dimmed in case of Displaying
+ the first 5 nearby Restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with valid user 
+ credientials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Previous" button.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Previous button is not-clickable.</t>
+  </si>
+  <si>
+    <t>Previous Button is
+ click-able</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Mariam Nessiem</t>
+  </si>
+  <si>
+    <t>Marwa El-sheshtawy</t>
+  </si>
+  <si>
+    <t>Foodies_Bug002</t>
+  </si>
+  <si>
+    <t>The "Next Button" is not dimmed in case of Displaying
+ the last 5 or less nearby Restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid Data (testData).
+3- Click on "Login" Button.
+4- Click Ok on pop-up message to allow accesssing your location.
+5- Click on "Next" button until you reach the 
+last restaurants page.
+6- Click"Next" button on the last 5 or less restaurants page.
+</t>
+  </si>
+  <si>
+    <t>Next button is not-clickable.</t>
+  </si>
+  <si>
+    <t>Next Button is
+ click-able</t>
+  </si>
+  <si>
+    <t>Foodies_Bug003</t>
+  </si>
+  <si>
+    <t>System Failed to display a "Pop-up message" 
+in case of no nearby Restaurants to the user's location.</t>
+  </si>
+  <si>
+    <t>1- Login with valid user 
+credientials.
+2- No restaurants for user's location in database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popup Message appears to the user
+</t>
+  </si>
+  <si>
+    <t>No Pop-up Message appeared</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Foodies_Bug004</t>
+  </si>
+  <si>
+    <t>System Failed to display a pop-up message text is the
+ required text to appear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Pop-up message text is "There is no near
+ Restaurants from you :( "</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Foodies_Bug005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User can't search for restaurant by substring
+ of restaurant's name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Login with valid user 
+ credientials .
+2- There'a a restaurant that conatin
+the substring already exit in database. </t>
+  </si>
+  <si>
+    <t>1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on pop-up message to enable accessing user's location.
+5- Write Part of restaurant's name ( use test data)
+6- Click on "Search Button"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+UserName : Mariam
+Password : MMmm12@@
+url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broswer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Substring of restaurant's name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "kf"</t>
+    </r>
+  </si>
+  <si>
+    <t>Restaurants that contains the substring in 
+it's name appeared</t>
+  </si>
+  <si>
+    <t>No Restaurant Displayed.</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Opened Date</t>
+  </si>
+  <si>
+    <t>22/5/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +691,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +726,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -442,6 +802,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,77 +1098,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CZ7"/>
+  <dimension ref="A1:CY12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="13" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="19.21875" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -879,270 +1263,487 @@
       <c r="CW1" s="2"/>
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
     </row>
-    <row r="2" spans="1:104" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
         <v>22</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:104" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:104" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:104" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>2</v>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" t="s">
         <v>22</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" spans="1:104" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="J7" t="s">
+        <v>52</v>
       </c>
       <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" s="3" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="L12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1756,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L360</xm:sqref>
+          <xm:sqref>K2:K7 K13:K360</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1171,29 +1772,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
   <si>
     <t>Decription</t>
   </si>
@@ -646,12 +646,194 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Foodies_Bug006</t>
+  </si>
+  <si>
+    <t>Foodies_Bug007</t>
+  </si>
+  <si>
+    <t>Foodies_Bug008</t>
+  </si>
+  <si>
+    <t>1- Login with valid Admin 
+credientials .</t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to Admin Add resturant page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_AddMenu.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"
+2- add valid data 
+3- Click on "Submit" button </t>
+    </r>
+  </si>
+  <si>
+    <t>UserName : DDdd
+Password : DDdd12@@
+Resturant Name:Chicken Fila
+Resturant Phone: +2025646999
+location: cairo
+Restaurant promotion :
+onion rings for 2 SW
+item1: juicy juily 
+price:49
+Item2:original
+price:45
+Item3:maxicano
+price: 95
+Item4:american
+price:100
+Item5:Grilled
+price:85</t>
+  </si>
+  <si>
+    <t>meassage displayed says "this restaurant already added before"</t>
+  </si>
+  <si>
+    <t>Add resturant already added before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediuem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariam Nesiem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aya Hamdy </t>
+  </si>
+  <si>
+    <t>SRS040_TC004</t>
+  </si>
+  <si>
+    <t>24/5/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add resturant
+ already exists</t>
+  </si>
+  <si>
+    <t>popup message is displayed with error
+ instead of red text message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup message is displayed with error
+ instead of red text message when enter invalid user id </t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to create Account page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Fooides_FrontEnd_Register.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Enter invalid userId and valid Email and Password
+3- Click on "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>UserID: Aya
+Email: aya@gmail.com
+password:Aya@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> red text message
+ is displaied next to user id field says "Invalid username or password" 
+  </t>
+  </si>
+  <si>
+    <t>SRS045_TC009</t>
+  </si>
+  <si>
+    <t>the message is displayed above the filed
+ not next to it.</t>
+  </si>
+  <si>
+    <t>the error message is displayed above the fileds
+ not next to it when enter invalid data .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Registered Admin / User
+2- Browser: Chrome </t>
+  </si>
+  <si>
+    <r>
+      <t>1- Navigate to login page url:"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://localhost:8081/foodies/Development/foodies/Foodies_FrontEnd_LoginPage.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"
+2- Enter invalid password
+3- Click on "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <t>UserID:AyaHamdy
+password:123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> red text message
+ is displaied next to password field says "Invalid username or password" 
+  </t>
+  </si>
+  <si>
+    <t>SRS046_TC010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,8 +890,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +947,24 @@
         <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -774,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -818,6 +1037,25 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,35 +1336,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY12"/>
+  <dimension ref="A1:CY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="37.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.21875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1264,7 +1502,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1311,7 +1549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -1355,7 +1593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1399,7 +1637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1443,7 +1681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1487,7 +1725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1531,7 +1769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -1575,7 +1813,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -1619,7 +1857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -1663,7 +1901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
@@ -1707,7 +1945,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="3" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>89</v>
       </c>
@@ -1745,6 +1983,153 @@
       <c r="P12" s="3" t="s">
         <v>98</v>
       </c>
+    </row>
+    <row r="13" spans="1:103" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,29 +2157,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
   <si>
     <t>Decription</t>
   </si>
@@ -828,12 +828,71 @@
   <si>
     <t>SRS046_TC010</t>
   </si>
+  <si>
+    <t>Foodies_Bug009</t>
+  </si>
+  <si>
+    <t>Foodies_Bug010</t>
+  </si>
+  <si>
+    <t>Foodies_Bug011</t>
+  </si>
+  <si>
+    <t>Foodies_Bug012</t>
+  </si>
+  <si>
+    <t>Foodies_Bug013</t>
+  </si>
+  <si>
+    <t>Foodies_Bug014</t>
+  </si>
+  <si>
+    <t>The Error message for adding UserID already exist</t>
+  </si>
+  <si>
+    <t>1- Use chrome browser
+2- Open this url 
+" http://localhost:81/foodies/Foodies_FrontEnd_LoginPage.php "
+3- Click on Register here Button</t>
+  </si>
+  <si>
+    <t>1- Enter Valid Email
+2- Enter UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t>Hossam Galal</t>
+  </si>
+  <si>
+    <t>Foodies_TC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail.com"
+2- UserID "222222"
+3- Password "Ahmed@m123*"
+4- Confirmation Password "Ahmed@m123*"
+5- Gender "Male"
+6- Location "Cairo"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red message appears with "please write another ID"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red message appears with " The userID already exist"
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +967,13 @@
       <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -993,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1056,6 +1122,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,35 +1405,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY17"/>
+  <dimension ref="A1:CY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.765625" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="35.3046875" customWidth="1"/>
+    <col min="5" max="5" width="26.84375" customWidth="1"/>
+    <col min="6" max="6" width="25.3046875" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" customWidth="1"/>
+    <col min="8" max="8" width="17.15234375" customWidth="1"/>
+    <col min="9" max="9" width="12.3828125" customWidth="1"/>
+    <col min="10" max="10" width="19.15234375" customWidth="1"/>
+    <col min="11" max="11" width="16.69140625" customWidth="1"/>
+    <col min="12" max="12" width="21.15234375" customWidth="1"/>
+    <col min="13" max="13" width="26.3046875" customWidth="1"/>
+    <col min="14" max="14" width="27.3046875" customWidth="1"/>
+    <col min="15" max="15" width="21.53515625" customWidth="1"/>
+    <col min="16" max="16" width="20.3828125" customWidth="1"/>
+    <col min="17" max="17" width="19.3046875" customWidth="1"/>
+    <col min="18" max="18" width="23.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1502,7 +1572,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1549,7 +1619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -1593,7 +1663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1637,7 +1707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1681,7 +1751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="268.75" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1725,7 +1795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1769,7 +1839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -1813,7 +1883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="183.9" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -1857,7 +1927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -1901,7 +1971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
@@ -1945,7 +2015,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="3" customFormat="1" ht="198" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>89</v>
       </c>
@@ -1984,7 +2054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:103" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>101</v>
       </c>
@@ -2031,7 +2101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="105" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
@@ -2078,7 +2148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>103</v>
       </c>
@@ -2125,11 +2195,77 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+    <row r="16" spans="1:103" ht="158.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2157,29 +2293,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
   <si>
     <t>Decription</t>
   </si>
@@ -1407,9 +1407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2227,7 +2227,7 @@
         <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>111</v>
@@ -2239,6 +2239,9 @@
         <v>139</v>
       </c>
       <c r="P16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>114</v>
       </c>
     </row>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
   <si>
     <t>Decription</t>
   </si>
@@ -539,10 +540,6 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>Pop-up message text is "There is no near
- Restaurants from you :( "</t>
   </si>
   <si>
     <t>UI</t>
@@ -887,12 +884,26 @@
     <t xml:space="preserve">Red message appears with " The userID already exist"
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
+2- Enter Valid data in all fields ( use testData).
+3- Click on "Login"button.
+4- Click on on message to enable accessing user's location.
+</t>
+  </si>
+  <si>
+    <t>message text is "There is no near
+ Restaurants from you :( "</t>
+  </si>
+  <si>
+    <t>No Message appeared</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +982,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1059,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1125,6 +1143,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,34 +1426,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.765625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="35.3046875" customWidth="1"/>
-    <col min="5" max="5" width="26.84375" customWidth="1"/>
-    <col min="6" max="6" width="25.3046875" customWidth="1"/>
-    <col min="7" max="7" width="37.3046875" customWidth="1"/>
-    <col min="8" max="8" width="17.15234375" customWidth="1"/>
-    <col min="9" max="9" width="12.3828125" customWidth="1"/>
-    <col min="10" max="10" width="19.15234375" customWidth="1"/>
-    <col min="11" max="11" width="16.69140625" customWidth="1"/>
-    <col min="12" max="12" width="21.15234375" customWidth="1"/>
-    <col min="13" max="13" width="26.3046875" customWidth="1"/>
-    <col min="14" max="14" width="27.3046875" customWidth="1"/>
-    <col min="15" max="15" width="21.53515625" customWidth="1"/>
-    <col min="16" max="16" width="20.3828125" customWidth="1"/>
-    <col min="17" max="17" width="19.3046875" customWidth="1"/>
-    <col min="18" max="18" width="23.53515625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1475,16 +1494,16 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1572,7 +1591,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1616,10 +1635,10 @@
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -1663,7 +1682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1707,7 +1726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="155.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1738,8 +1757,8 @@
       <c r="J5" t="s">
         <v>52</v>
       </c>
-      <c r="K5" t="s">
-        <v>12</v>
+      <c r="K5" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>53</v>
@@ -1751,7 +1770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="268.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1782,7 +1801,7 @@
       <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="L6" t="s">
@@ -1795,7 +1814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="155.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1826,8 +1845,8 @@
       <c r="J7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
-        <v>12</v>
+      <c r="K7" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="L7" t="s">
         <v>53</v>
@@ -1839,7 +1858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="141.44999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -1870,8 +1889,8 @@
       <c r="J8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
+      <c r="K8" t="s">
+        <v>12</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>69</v>
@@ -1880,10 +1899,10 @@
         <v>70</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="183.9" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -1914,8 +1933,8 @@
       <c r="J9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>10</v>
+      <c r="K9" t="s">
+        <v>12</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>69</v>
@@ -1924,10 +1943,10 @@
         <v>70</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -1958,8 +1977,8 @@
       <c r="J10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>10</v>
+      <c r="K10" t="s">
+        <v>14</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>69</v>
@@ -1968,10 +1987,10 @@
         <v>70</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
@@ -1982,16 +2001,16 @@
         <v>78</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>83</v>
@@ -2000,10 +2019,10 @@
         <v>83</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>69</v>
@@ -2012,30 +2031,30 @@
         <v>70</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:103" s="3" customFormat="1" ht="198" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>83</v>
@@ -2044,6 +2063,9 @@
         <v>83</v>
       </c>
       <c r="J12" s="10"/>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
       <c r="L12" s="3" t="s">
         <v>69</v>
       </c>
@@ -2051,77 +2073,77 @@
         <v>70</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:103" ht="247.75" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" ht="285" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="O13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:103" ht="105" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>68</v>
@@ -2133,42 +2155,42 @@
         <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="O14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>68</v>
@@ -2180,42 +2202,42 @@
         <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="O15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:103" ht="158.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="B16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>137</v>
-      </c>
       <c r="E16" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>142</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>68</v>
@@ -2230,61 +2252,49 @@
         <v>11</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="P16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K7 K13:K360</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2296,29 +2306,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
   <si>
     <t>Decription</t>
   </si>
@@ -1426,34 +1425,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1591,7 +1590,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1613,11 +1612,11 @@
       <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="H2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>52</v>
@@ -1638,7 +1637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -1660,11 +1659,11 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
+      <c r="H3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
@@ -1682,7 +1681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1704,11 +1703,11 @@
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
+      <c r="H4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>52</v>
@@ -1726,7 +1725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1748,11 +1747,11 @@
       <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+      <c r="H5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
@@ -1770,7 +1769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1792,11 +1791,11 @@
       <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
+      <c r="H6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
@@ -1814,7 +1813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1836,11 +1835,11 @@
       <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
+      <c r="H7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
@@ -1858,7 +1857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="3" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>88</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:103" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>100</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>101</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>102</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="156" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
@@ -2267,27 +2266,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>133</v>
       </c>
@@ -2306,29 +2305,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1425,34 +1425,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1800,8 +1800,8 @@
       <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>10</v>
+      <c r="K6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>53</v>
@@ -1813,7 +1813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="3" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>88</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:103" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="285" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>100</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>101</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>102</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:103" ht="156" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
@@ -2266,27 +2266,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>133</v>
       </c>
@@ -2305,29 +2305,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
   <si>
     <t>Decription</t>
   </si>
@@ -178,14 +178,6 @@
     <t xml:space="preserve">I don't recive any message to know this user deleted successuffely or not </t>
   </si>
   <si>
-    <t>Foodies_SRS_056_T008</t>
-  </si>
-  <si>
-    <t>Verify order button will display Popup message 
-“phone number of restaurant” and has confirm
- and cancel buttons</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add New User with valid user account credientials </t>
   </si>
   <si>
@@ -222,22 +214,6 @@
       </rPr>
       <t xml:space="preserve"> chrome Version 74.0.3729.157</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1-  Navigate to Login page using URL in testData.
-2-  Enter Valid data in all fields ( use testData).
-3- Click on "Login" Button 
-4- press "Ok" on Popup message 
-5- go to search and write "KFC" then press search
-6- press "Menu" Button
-7- press "Order" Button
-</t>
-  </si>
-  <si>
-    <t>order button  display Popup message “phone number of restaurant” and has confirm and cancel buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel Button doesn't found </t>
   </si>
   <si>
     <t>Foodies_SRS_057_T009</t>
@@ -272,17 +248,6 @@
 but I get it on 7th order</t>
   </si>
   <si>
-    <t>Foodies_SRS_058_T010</t>
-  </si>
-  <si>
-    <t>Verify click on cancel button on order 
-message the order will be canceled</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> click on cancel button on order 
-message the order will be canceled</t>
-  </si>
-  <si>
     <t>TC_ID</t>
   </si>
   <si>
@@ -298,28 +263,10 @@
     <t>Mariam Nessim</t>
   </si>
   <si>
-    <t>Foodies_SRS_053_D002</t>
-  </si>
-  <si>
     <t>verify when admin clicks on submit button to add new restaurant with valid data, system shall display message says “restaurant added successfully</t>
   </si>
   <si>
-    <t>Foodies_SRS_054_D003</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_056_D004</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_057_D005</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_058_D006</t>
-  </si>
-  <si>
     <t>Tester Name</t>
-  </si>
-  <si>
-    <t>Foodies_Bug001</t>
   </si>
   <si>
     <t>The "Previous Button" is not dimmed in case of Displaying
@@ -397,9 +344,6 @@
   </si>
   <si>
     <t>Marwa El-sheshtawy</t>
-  </si>
-  <si>
-    <t>Foodies_Bug002</t>
   </si>
   <si>
     <t>The "Next Button" is not dimmed in case of Displaying
@@ -423,9 +367,6 @@
  click-able</t>
   </si>
   <si>
-    <t>Foodies_Bug003</t>
-  </si>
-  <si>
     <t>System Failed to display a "Pop-up message" 
 in case of no nearby Restaurants to the user's location.</t>
   </si>
@@ -488,9 +429,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Foodies_Bug004</t>
-  </si>
-  <si>
     <t>System Failed to display a pop-up message text is the
  required text to appear</t>
   </si>
@@ -542,9 +480,6 @@
   </si>
   <si>
     <t>UI</t>
-  </si>
-  <si>
-    <t>Foodies_Bug005</t>
   </si>
   <si>
     <t xml:space="preserve"> User can't search for restaurant by substring
@@ -641,15 +576,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Foodies_Bug006</t>
-  </si>
-  <si>
-    <t>Foodies_Bug007</t>
-  </si>
-  <si>
-    <t>Foodies_Bug008</t>
   </si>
   <si>
     <t>1- Login with valid Admin 
@@ -825,24 +751,6 @@
     <t>SRS046_TC010</t>
   </si>
   <si>
-    <t>Foodies_Bug009</t>
-  </si>
-  <si>
-    <t>Foodies_Bug010</t>
-  </si>
-  <si>
-    <t>Foodies_Bug011</t>
-  </si>
-  <si>
-    <t>Foodies_Bug012</t>
-  </si>
-  <si>
-    <t>Foodies_Bug013</t>
-  </si>
-  <si>
-    <t>Foodies_Bug014</t>
-  </si>
-  <si>
     <t>The Error message for adding UserID already exist</t>
   </si>
   <si>
@@ -897,12 +805,48 @@
   <si>
     <t>No Message appeared</t>
   </si>
+  <si>
+    <t>Foodies_SRS_052_D002</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D003</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D004</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D005</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D006</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D007</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D008</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D009</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D010</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D011</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D012</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,12 +877,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -981,13 +919,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1076,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1096,53 +1027,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,11 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY21"/>
+  <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1381,7 @@
   <sheetData>
     <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1490,19 +1417,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1592,7 +1519,7 @@
     </row>
     <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -1612,20 +1539,20 @@
       <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>83</v>
+      <c r="H2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -1634,15 +1561,15 @@
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>118</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -1659,20 +1586,20 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>108</v>
+      <c r="H3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1683,9 +1610,9 @@
     </row>
     <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1703,20 +1630,20 @@
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>108</v>
+      <c r="H4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -1725,571 +1652,473 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>120</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>108</v>
+      <c r="H5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:103" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="L8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="D9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="I9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="F10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="G10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="H10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="P10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" ht="285" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="F12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="M12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="O12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:103" ht="285" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    </row>
+    <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>52</v>
+      <c r="H13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="O14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:103" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>120</v>
-      </c>
       <c r="P14" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:103" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A17" s="9"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="A19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="169">
   <si>
     <t>Decription</t>
   </si>
@@ -841,12 +841,180 @@
   <si>
     <t>Foodies_SRS_052_D013</t>
   </si>
+  <si>
+    <t>Foodies_SRS_052_D014</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D015</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D016</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D017</t>
+  </si>
+  <si>
+    <t>- User is able to identify the restaurant with an offer
+- 'take one free' is displayed in the menu page</t>
+  </si>
+  <si>
+    <t>1- Navigate to User homepage url:"http://localhost:81/foodies/Foodies_FrontEnd_Homepage.php"
+2- Click on "Go to Restaurants with offers" button
+3- Click on "Menu" button next to the restaurant name</t>
+  </si>
+  <si>
+    <t>Logged-in user with a location that have restaurants with offers</t>
+  </si>
+  <si>
+    <t>validate that "Offers &amp; Promotions Screen" lists all restaurants that have promotions and offers</t>
+  </si>
+  <si>
+    <t>- User isn't able to identify the restaurant with an offer
+- 'take one free' isn't displayed in the menu page</t>
+  </si>
+  <si>
+    <t>Maryam mohamed</t>
+  </si>
+  <si>
+    <t>Foodies_TC_050</t>
+  </si>
+  <si>
+    <t>- "0" is displayed in the free orders section in the "User Account" Page 
+- "Loyalty points" bar is restored to empty (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Navigate to User homepage url:"http://localhost:81/foodies/Foodies_FrontEnd_Homepage.php"
+2- Click on "Menu" button next to the restaurant name
+3- Click on "Order" Button and press "Ok" when the pop-up message appears
+4- Repeat step 3 for 5 more times (Total 6 orders) </t>
+  </si>
+  <si>
+    <t>Logged-in user with no previous orders</t>
+  </si>
+  <si>
+    <t>Validate that every 5 orders the user will get one order free</t>
+  </si>
+  <si>
+    <t>- "1" is displayed in the free orders section in the "User Account" Page 
+- "Loyalty points" bar is restored to empty (0%)</t>
+  </si>
+  <si>
+    <t>Rejected - it's working as expected result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejected - it doesn't map to any srs </t>
+  </si>
+  <si>
+    <t>- "1" is displayed in the free orders section in the "User Account" Page 
+- "Loyalty points" bar filled (100%)</t>
+  </si>
+  <si>
+    <t>- "2" is displayed in the free orders section in the "User Account" Page 
+- "Loyalty points" bar filled (20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Navigate to User homepage url:"http://localhost:81/foodies/Foodies_FrontEnd_Homepage.php"
+2- Click on "Menu" button next to the restaurant name
+3- Click on "Order" Button and press "Ok" when the pop-up message appears
+4- Repeat step 3 for 10 more times (Total 11 orders) </t>
+  </si>
+  <si>
+    <t>"free orders" label in the user account page display 0</t>
+  </si>
+  <si>
+    <t>1- Navigate to user account page
+2- Observe</t>
+  </si>
+  <si>
+    <t>1- Logged-in user
+2- Browser: Chrome 
+3- User have 0 free orders</t>
+  </si>
+  <si>
+    <t>Validate that User Account Page shall display how many free orders this user made in case of 0 orders</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D018</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D019</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052_D020</t>
+  </si>
+  <si>
+    <t>"free orders" label in the user account page display 1</t>
+  </si>
+  <si>
+    <t>1- Logged-in user
+2- Browser: Chrome 
+3- User have 1 free order</t>
+  </si>
+  <si>
+    <t>Validate that User Account Page shall display how many free orders this user made in case of 1 order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- "Loyalty points" doesn't change</t>
+  </si>
+  <si>
+    <t>1- Navigate to User homepage url:"http://localhost:81/foodies/Foodies_FrontEnd_Homepage.php"
+2- Click on "Menu" button next to the restaurant name
+3- Click on "Order" Button and press "Ok" when the pop-up message appears
+4- Click on the "User Account Page" button in the navbar</t>
+  </si>
+  <si>
+    <r>
+      <t>validate that when user click on "confirm order" button, loyalty points will increase by one for each order,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>unless it’s a free order</t>
+    </r>
+  </si>
+  <si>
+    <t>- User is redirected to homepage</t>
+  </si>
+  <si>
+    <t>1- Navigate to admin account page "http://localhost:81/foodies/Foodies_FrontEnd_AdminProfile.php"
+2- Click on "Delete User" Button (if Applicable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular User Valid Credentials
+UserName: Mariam
+Password : MMmm12@@
+</t>
+  </si>
+  <si>
+    <t>1- Logged-in user (NOT ADMIN)
+2- Browser: Chrome</t>
+  </si>
+  <si>
+    <t>Validate that "Delete User" page controlled by Admin only (Accessing page with regular user credentials)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +1090,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1007,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1069,6 +1252,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,11 +1542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY19"/>
+  <dimension ref="A1:CY23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1561,7 @@
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
     <col min="12" max="12" width="21.140625" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
     <col min="14" max="14" width="27.28515625" customWidth="1"/>
@@ -1595,8 +1787,8 @@
       <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
+      <c r="K3" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="L3" t="s">
         <v>45</v>
@@ -1727,8 +1919,8 @@
       <c r="J6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
+      <c r="K6" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>55</v>
@@ -1771,8 +1963,8 @@
       <c r="J7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
-        <v>12</v>
+      <c r="K7" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>55</v>
@@ -1945,8 +2137,8 @@
       <c r="J11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K11" t="s">
-        <v>12</v>
+      <c r="K11" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>89</v>
@@ -1992,8 +2184,8 @@
       <c r="J12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K12" t="s">
-        <v>12</v>
+      <c r="K12" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>89</v>
@@ -2039,8 +2231,8 @@
       <c r="J13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K13" t="s">
-        <v>12</v>
+      <c r="K13" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>89</v>
@@ -2105,20 +2297,284 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+    <row r="15" spans="1:103" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:103" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="173">
   <si>
     <t>Decription</t>
   </si>
@@ -1008,6 +1008,19 @@
   </si>
   <si>
     <t>Validate that "Delete User" page controlled by Admin only (Accessing page with regular user credentials)</t>
+  </si>
+  <si>
+    <t>user can click on delete user and react as an admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- "Loyalty points" changed </t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Need information</t>
   </si>
 </sst>
 </file>
@@ -1545,8 +1558,8 @@
   <dimension ref="A1:CY23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2384,7 @@
         <v>44</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>89</v>
@@ -2412,7 +2425,7 @@
         <v>44</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>89</v>
@@ -2450,7 +2463,7 @@
         <v>44</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>89</v>
@@ -2488,7 +2501,7 @@
         <v>44</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>89</v>
@@ -2513,6 +2526,9 @@
       <c r="F20" s="23" t="s">
         <v>161</v>
       </c>
+      <c r="G20" s="23" t="s">
+        <v>170</v>
+      </c>
       <c r="H20" s="13" t="s">
         <v>67</v>
       </c>
@@ -2550,6 +2566,9 @@
       </c>
       <c r="F21" s="23" t="s">
         <v>164</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>67</v>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="131">
   <si>
     <t>Decription</t>
   </si>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>DR_ID</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D001</t>
   </si>
   <si>
     <t>Functional</t>
@@ -806,46 +803,52 @@
     <t>No Message appeared</t>
   </si>
   <si>
-    <t>Foodies_SRS_052_D002</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D003</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D004</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D005</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D006</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D007</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D008</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D009</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D010</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D011</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D012</t>
-  </si>
-  <si>
-    <t>Foodies_SRS_052_D013</t>
+    <t>Reopen</t>
+  </si>
+  <si>
+    <t>Foodies_D001</t>
+  </si>
+  <si>
+    <t>Foodies_D002</t>
+  </si>
+  <si>
+    <t>Foodies_D003</t>
+  </si>
+  <si>
+    <t>Foodies_D004</t>
+  </si>
+  <si>
+    <t>Foodies_D005</t>
+  </si>
+  <si>
+    <t>Foodies_D006</t>
+  </si>
+  <si>
+    <t>Foodies_D007</t>
+  </si>
+  <si>
+    <t>Foodies_D008</t>
+  </si>
+  <si>
+    <t>Foodies_D009</t>
+  </si>
+  <si>
+    <t>Foodies_D010</t>
+  </si>
+  <si>
+    <t>Foodies_D011</t>
+  </si>
+  <si>
+    <t>Foodies_D012</t>
+  </si>
+  <si>
+    <t>Foodies_D013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,6 +1088,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3057524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24603075" y="23021924"/>
+          <a:ext cx="1800226" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1353,8 +1405,8 @@
   <dimension ref="A1:CY19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,19 +1469,19 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1519,7 +1571,7 @@
     </row>
     <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -1540,19 +1592,19 @@
         <v>23</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -1561,15 +1613,15 @@
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -1587,19 +1639,19 @@
         <v>27</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1610,7 +1662,7 @@
     </row>
     <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>29</v>
@@ -1631,19 +1683,19 @@
         <v>33</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -1654,7 +1706,7 @@
     </row>
     <row r="5" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1675,19 +1727,19 @@
         <v>40</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -1698,411 +1750,414 @@
     </row>
     <row r="6" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="P6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="I8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="P8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="F9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="P9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="P10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:103" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="P11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>92</v>
+      <c r="Q11" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="P12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="P13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="E14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>114</v>
-      </c>
       <c r="H14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="P14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.25">
@@ -2123,6 +2178,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
   <si>
     <t>Decription</t>
   </si>
@@ -421,9 +421,6 @@
   <si>
     <t xml:space="preserve"> Popup Message appears to the user
 </t>
-  </si>
-  <si>
-    <t>No Pop-up Message appeared</t>
   </si>
   <si>
     <t>High</t>
@@ -803,9 +800,6 @@
  Restaurants from you :( "</t>
   </si>
   <si>
-    <t>No Message appeared</t>
-  </si>
-  <si>
     <t>Foodies_SRS_052_D002</t>
   </si>
   <si>
@@ -840,6 +834,39 @@
   </si>
   <si>
     <t>Foodies_SRS_052_D013</t>
+  </si>
+  <si>
+    <t>Re-opened</t>
+  </si>
+  <si>
+    <t>Foodies_TC_047</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Appeared with a label
+ not pop-up message</t>
+  </si>
+  <si>
+    <t>Appeared with a label not 
+pop-up message</t>
+  </si>
+  <si>
+    <t>Foodies_TC_032</t>
+  </si>
+  <si>
+    <t>Foodies_TC_035</t>
+  </si>
+  <si>
+    <t>Foodies_TC_037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_TC_036
+</t>
+  </si>
+  <si>
+    <t>closed as Fixed</t>
   </si>
 </sst>
 </file>
@@ -1352,34 +1379,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1420,16 +1447,19 @@
         <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1517,7 +1547,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1540,10 +1570,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>44</v>
@@ -1561,12 +1591,12 @@
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>46</v>
@@ -1590,7 +1620,7 @@
         <v>54</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -1608,9 +1638,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>29</v>
@@ -1634,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>44</v>
@@ -1652,9 +1682,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1675,10 +1705,10 @@
         <v>40</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
@@ -1696,9 +1726,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="3" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>48</v>
@@ -1736,13 +1766,16 @@
       <c r="M6" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="P6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" s="3" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>57</v>
@@ -1780,13 +1813,16 @@
       <c r="M7" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="P7" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>61</v>
@@ -1803,20 +1839,20 @@
       <c r="F8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="I8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>55</v>
@@ -1824,43 +1860,46 @@
       <c r="M8" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="O8" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="P8" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>55</v>
@@ -1868,41 +1907,49 @@
       <c r="M9" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="O9" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="P9" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>55</v>
@@ -1910,37 +1957,43 @@
       <c r="M10" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="O10" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="P10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:103" ht="285" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>44</v>
@@ -1949,39 +2002,39 @@
         <v>12</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="P11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="G12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>54</v>
@@ -1996,39 +2049,39 @@
         <v>12</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="O12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>54</v>
@@ -2043,39 +2096,39 @@
         <v>12</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="O13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" ht="156" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="E14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>54</v>
@@ -2090,34 +2143,34 @@
         <v>11</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="P14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
     </row>
   </sheetData>
@@ -2134,29 +2187,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -641,9 +641,6 @@
     <t xml:space="preserve">Aya Hamdy </t>
   </si>
   <si>
-    <t>SRS040_TC004</t>
-  </si>
-  <si>
     <t>24/5/2019</t>
   </si>
   <si>
@@ -695,9 +692,6 @@
   </t>
   </si>
   <si>
-    <t>SRS045_TC009</t>
-  </si>
-  <si>
     <t>the message is displayed above the filed
  not next to it.</t>
   </si>
@@ -743,9 +737,6 @@
     <t xml:space="preserve"> red text message
  is displaied next to password field says "Invalid username or password" 
   </t>
-  </si>
-  <si>
-    <t>SRS046_TC010</t>
   </si>
   <si>
     <t>The Error message for adding UserID already exist</t>
@@ -843,6 +834,15 @@
   </si>
   <si>
     <t>Foodies_D013</t>
+  </si>
+  <si>
+    <t>Foodies_TC_071</t>
+  </si>
+  <si>
+    <t>Foodies_TC_076</t>
+  </si>
+  <si>
+    <t>Foodies_TC_077</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1072,6 +1072,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,9 +1407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1574,7 @@
     </row>
     <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>45</v>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>29</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="5" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="6" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>47</v>
@@ -1794,7 +1797,7 @@
     </row>
     <row r="7" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>56</v>
@@ -1838,7 +1841,7 @@
     </row>
     <row r="8" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>60</v>
@@ -1882,7 +1885,7 @@
     </row>
     <row r="9" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>67</v>
@@ -1891,16 +1894,16 @@
         <v>61</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>66</v>
@@ -1926,7 +1929,7 @@
     </row>
     <row r="10" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>70</v>
@@ -1968,10 +1971,10 @@
     </row>
     <row r="11" spans="1:103" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>81</v>
@@ -2006,37 +2009,37 @@
       <c r="M11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="G12" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>53</v>
@@ -2048,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>88</v>
@@ -2056,34 +2059,34 @@
       <c r="M12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O12" s="15" t="s">
-        <v>98</v>
+      <c r="O12" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="G13" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>53</v>
@@ -2103,34 +2106,34 @@
       <c r="M13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="15" t="s">
-        <v>105</v>
+      <c r="O13" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="F14" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>53</v>
@@ -2148,16 +2151,16 @@
         <v>88</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.25">

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -1380,8 +1380,8 @@
   <dimension ref="A1:CY19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="140">
   <si>
     <t>Decription</t>
   </si>
@@ -868,11 +868,17 @@
   <si>
     <t>closed as Fixed</t>
   </si>
+  <si>
+    <t>Reopen</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1379,34 +1385,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1553,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>116</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="3" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="3" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>120</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>122</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:103" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>124</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>88</v>
@@ -2014,7 +2020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>88</v>
@@ -2061,7 +2067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>126</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>88</v>
@@ -2108,7 +2114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="156" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>127</v>
       </c>
@@ -2158,19 +2164,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
     </row>
   </sheetData>
@@ -2187,29 +2193,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
   <si>
     <t>Decription</t>
   </si>
@@ -833,9 +833,6 @@
     <t>Foodies_SRS_052_D012</t>
   </si>
   <si>
-    <t>Foodies_SRS_052_D013</t>
-  </si>
-  <si>
     <t>Re-opened</t>
   </si>
   <si>
@@ -873,12 +870,66 @@
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t>Foodies_TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed"
+</t>
+  </si>
+  <si>
+    <t>1- Enter Email
+2- Enter Valid UserID
+3- Enter Valid Password
+4- Enter matching Confirmation Password
+5- Select the Gender
+6- Select the Location
+7- Click on button Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message tells you Please Enter Valid email
+</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_003_D013</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_007_D014</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_007_D015</t>
+  </si>
+  <si>
+    <t>The Error message for adding incomplete email field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message tells you Please include
+'@' in the email address
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>25/5/2019</t>
+  </si>
+  <si>
+    <t>Foodies_TC_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Email "ahmed@gmail"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message tells you Please match the requested format
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1040,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1102,6 +1153,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,34 +1439,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.69140625" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.3046875" customWidth="1"/>
+    <col min="5" max="5" width="26.84375" customWidth="1"/>
+    <col min="6" max="6" width="25.3046875" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" customWidth="1"/>
+    <col min="8" max="8" width="17.15234375" customWidth="1"/>
+    <col min="9" max="9" width="12.3828125" customWidth="1"/>
+    <col min="10" max="10" width="19.15234375" customWidth="1"/>
+    <col min="11" max="11" width="16.69140625" customWidth="1"/>
+    <col min="12" max="12" width="21.15234375" customWidth="1"/>
+    <col min="13" max="13" width="26.3046875" customWidth="1"/>
+    <col min="14" max="14" width="27.3046875" customWidth="1"/>
+    <col min="15" max="15" width="21.53515625" customWidth="1"/>
+    <col min="16" max="16" width="20.3828125" customWidth="1"/>
+    <col min="17" max="17" width="19.3046875" customWidth="1"/>
+    <col min="18" max="18" width="23.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1465,7 +1519,7 @@
         <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1553,7 +1607,7 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
     </row>
-    <row r="2" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1600,7 +1654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>116</v>
       </c>
@@ -1644,7 +1698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
@@ -1688,7 +1742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="268.75" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -1732,7 +1786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="3" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="3" customFormat="1" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -1773,13 +1827,13 @@
         <v>56</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="3" customFormat="1" ht="183.9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>120</v>
       </c>
@@ -1820,13 +1874,13 @@
         <v>56</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
@@ -1846,7 +1900,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>66</v>
@@ -1858,7 +1912,7 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>55</v>
@@ -1867,13 +1921,13 @@
         <v>56</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="3" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>122</v>
       </c>
@@ -1893,7 +1947,7 @@
         <v>115</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>66</v>
@@ -1905,7 +1959,7 @@
         <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>55</v>
@@ -1914,16 +1968,16 @@
         <v>56</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>78</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="3" customFormat="1" ht="198" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
@@ -1955,7 +2009,7 @@
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>55</v>
@@ -1964,7 +2018,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>78</v>
@@ -1973,7 +2027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:103" ht="285" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>124</v>
       </c>
@@ -2020,7 +2074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:103" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" ht="105" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -2052,7 +2106,7 @@
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>88</v>
@@ -2067,7 +2121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>126</v>
       </c>
@@ -2099,7 +2153,7 @@
         <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>88</v>
@@ -2114,9 +2168,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" ht="158.6" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>106</v>
@@ -2164,19 +2218,107 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:103" s="22" customFormat="1" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:103" s="22" customFormat="1" ht="126.9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
     </row>
   </sheetData>
@@ -2193,29 +2335,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/Testing/Foodies_Defect_Report.xlsx
+++ b/Testing/Foodies_Defect_Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
   <si>
     <t>Decription</t>
   </si>
@@ -417,10 +417,6 @@
       </rPr>
       <t xml:space="preserve"> : chrome Version 74.0.3729.157</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Popup Message appears to the user
-</t>
   </si>
   <si>
     <t>High</t>
@@ -833,9 +829,6 @@
     <t>Foodies_SRS_052_D012</t>
   </si>
   <si>
-    <t>Re-opened</t>
-  </si>
-  <si>
     <t>Foodies_TC_047</t>
   </si>
   <si>
@@ -864,9 +857,6 @@
   </si>
   <si>
     <t>closed as Fixed</t>
-  </si>
-  <si>
-    <t>Reopen</t>
   </si>
   <si>
     <t>closed</t>
@@ -923,6 +913,13 @@
   </si>
   <si>
     <t xml:space="preserve">Error message tells you Please match the requested format
+</t>
+  </si>
+  <si>
+    <t>Appeared with a label not  message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Message appears to the user
 </t>
   </si>
 </sst>
@@ -1439,9 +1436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1507,19 +1504,19 @@
         <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1630,10 +1627,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>44</v>
@@ -1651,12 +1648,12 @@
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>46</v>
@@ -1680,7 +1677,7 @@
         <v>54</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="4" spans="1:103" ht="127.3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>29</v>
@@ -1724,7 +1721,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>44</v>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="5" spans="1:103" ht="268.75" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1765,10 +1762,10 @@
         <v>40</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
@@ -1788,7 +1785,7 @@
     </row>
     <row r="6" spans="1:103" s="3" customFormat="1" ht="141.44999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>48</v>
@@ -1827,15 +1824,15 @@
         <v>56</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="3" customFormat="1" ht="183.9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>57</v>
@@ -1874,15 +1871,15 @@
         <v>56</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>61</v>
@@ -1897,22 +1894,22 @@
         <v>64</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="I8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>55</v>
@@ -1921,45 +1918,45 @@
         <v>56</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="3" customFormat="1" ht="155.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>55</v>
@@ -1968,48 +1965,48 @@
         <v>56</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="3" customFormat="1" ht="198" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>55</v>
@@ -2018,42 +2015,42 @@
         <v>56</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:103" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>44</v>
@@ -2062,39 +2059,39 @@
         <v>14</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="P11" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:103" ht="105" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="G12" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>54</v>
@@ -2106,42 +2103,42 @@
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="O12" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:103" ht="90" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="G13" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>54</v>
@@ -2153,42 +2150,42 @@
         <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="O13" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:103" ht="158.6" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="E14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>54</v>
@@ -2203,42 +2200,42 @@
         <v>11</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="P14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="22" customFormat="1" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>147</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>54</v>
@@ -2250,42 +2247,42 @@
         <v>44</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="22" customFormat="1" ht="126.9" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>54</v>
@@ -2297,19 +2294,19 @@
         <v>44</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
